--- a/mintoc_gravity_turn.xlsx
+++ b/mintoc_gravity_turn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Python\Rocket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:40009_{D8B6FFBE-7BCA-43B9-B14C-526CF7282F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{170B658A-D334-48AD-A5AF-E6EF82E66C29}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:40009_{D8B6FFBE-7BCA-43B9-B14C-526CF7282F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{17F50FB9-EA77-43D3-95CC-6822174CB1C2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>mintoc_gravity_turn!$K$3:$K$303</c:f>
+              <c:f>mintoc_gravity_turn!$K$2:$K$302</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="301"/>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2">
-        <f>0.6*K3/B2</f>
+        <f>0.6*K2/B2</f>
         <v>5.3090542881451319E-2</v>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
         <v>1.29929499744E-9</v>
       </c>
       <c r="K3" s="3">
-        <v>0.99987189093399997</v>
+        <v>0.99895824627600005</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L66" si="2">-(C3*300*0.00981)/B3</f>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3">
-        <f>0.6*K4/B3</f>
+        <f>0.6*K3/B3</f>
         <v>5.4142594243594452E-2</v>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
         <v>5.95514030718E-9</v>
       </c>
       <c r="K4" s="3">
-        <v>0.99895824627600005</v>
+        <v>0.326196705112</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4">
-        <f>0.6*K5/B4</f>
+        <f>0.6*K4/B4</f>
         <v>1.8053807840366098E-2</v>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
         <v>1.27488341644E-8</v>
       </c>
       <c r="K5" s="3">
-        <v>0.326196705112</v>
+        <v>0.36077660746000001</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="2"/>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5">
-        <f>0.6*K6/B5</f>
+        <f>0.6*K5/B5</f>
         <v>2.0106665302153961E-2</v>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
         <v>2.0401433241900001E-8</v>
       </c>
       <c r="K6" s="3">
-        <v>0.36077660746000001</v>
+        <v>0.34821699510699999</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="2"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6">
-        <f>0.6*K7/B6</f>
+        <f>0.6*K6/B6</f>
         <v>1.9557256786544974E-2</v>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
         <v>2.90935384675E-8</v>
       </c>
       <c r="K7" s="3">
-        <v>0.34821699510699999</v>
+        <v>0.34816297515599998</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="2"/>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7">
-        <f>0.6*K8/B7</f>
+        <f>0.6*K7/B7</f>
         <v>1.9701749841985187E-2</v>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
         <v>3.8936769267399999E-8</v>
       </c>
       <c r="K8" s="3">
-        <v>0.34816297515599998</v>
+        <v>0.34481913167099998</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="2"/>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8">
-        <f>0.6*K9/B8</f>
+        <f>0.6*K8/B8</f>
         <v>1.9660837732401269E-2</v>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
         <v>5.0083520831000003E-8</v>
       </c>
       <c r="K9" s="3">
-        <v>0.34481913167099998</v>
+        <v>0.34237477093800001</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="2"/>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9">
-        <f>0.6*K10/B9</f>
+        <f>0.6*K9/B9</f>
         <v>1.9669531442240235E-2</v>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
         <v>6.2696444647099995E-8</v>
       </c>
       <c r="K10" s="3">
-        <v>0.34237477093800001</v>
+        <v>0.339711745211</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="2"/>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10">
-        <f>0.6*K11/B10</f>
+        <f>0.6*K10/B10</f>
         <v>1.9664634269483488E-2</v>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
         <v>7.6959891207600004E-8</v>
       </c>
       <c r="K11" s="3">
-        <v>0.339711745211</v>
+        <v>0.33715052916299998</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="2"/>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11">
-        <f>0.6*K12/B11</f>
+        <f>0.6*K11/B11</f>
         <v>1.9664431151912437E-2</v>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
         <v>9.3079378519500001E-8</v>
       </c>
       <c r="K12" s="3">
-        <v>0.33715052916299998</v>
+        <v>0.33456814108799998</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="2"/>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12">
-        <f>0.6*K13/B12</f>
+        <f>0.6*K12/B12</f>
         <v>1.9661847455236789E-2</v>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
         <v>1.11285346314E-7</v>
       </c>
       <c r="K13" s="3">
-        <v>0.33456814108799998</v>
+        <v>0.332038336386</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="2"/>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13">
-        <f>0.6*K14/B13</f>
+        <f>0.6*K13/B13</f>
         <v>1.9661186928082615E-2</v>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
         <v>1.3183485148700001E-7</v>
       </c>
       <c r="K14" s="3">
-        <v>0.332038336386</v>
+        <v>0.329509747357</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="2"/>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14">
-        <f>0.6*K15/B14</f>
+        <f>0.6*K14/B14</f>
         <v>1.9659452662624814E-2</v>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
         <v>1.5501489412200001E-7</v>
       </c>
       <c r="K15" s="3">
-        <v>0.329509747357</v>
+        <v>0.32701007858199999</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="2"/>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15">
-        <f>0.6*K16/B15</f>
+        <f>0.6*K15/B15</f>
         <v>1.9658286361338248E-2</v>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
         <v>1.81145560812E-7</v>
       </c>
       <c r="K16" s="3">
-        <v>0.32701007858199999</v>
+        <v>0.32452841344400002</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="2"/>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16">
-        <f>0.6*K17/B16</f>
+        <f>0.6*K16/B16</f>
         <v>1.9657053202494383E-2</v>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
         <v>2.1058369343399999E-7</v>
       </c>
       <c r="K17" s="3">
-        <v>0.32452841344400002</v>
+        <v>0.32207079812400002</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="2"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17">
-        <f>0.6*K18/B17</f>
+        <f>0.6*K17/B17</f>
         <v>1.9656129139837632E-2</v>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
         <v>2.4372679152900001E-7</v>
       </c>
       <c r="K18" s="3">
-        <v>0.32207079812400002</v>
+        <v>0.31962788663800001</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18">
-        <f>0.6*K19/B18</f>
+        <f>0.6*K18/B18</f>
         <v>1.9654957835355473E-2</v>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
         <v>2.8101726463200001E-7</v>
       </c>
       <c r="K19" s="3">
-        <v>0.31962788663800001</v>
+        <v>0.31721107000999998</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="2"/>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19">
-        <f>0.6*K20/B19</f>
+        <f>0.6*K19/B19</f>
         <v>1.965424646465673E-2</v>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
         <v>3.22947209818E-7</v>
       </c>
       <c r="K20" s="3">
-        <v>0.31721107000999998</v>
+        <v>0.31481114958799999</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="2"/>
@@ -8773,7 +8773,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20">
-        <f>0.6*K21/B20</f>
+        <f>0.6*K20/B20</f>
         <v>1.9653443687461282E-2</v>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
         <v>3.7006358711899998E-7</v>
       </c>
       <c r="K21" s="3">
-        <v>0.31481114958799999</v>
+        <v>0.31243245439200001</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="2"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21">
-        <f>0.6*K22/B21</f>
+        <f>0.6*K21/B21</f>
         <v>1.9652827852972142E-2</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
         <v>4.2297383887299999E-7</v>
       </c>
       <c r="K22" s="3">
-        <v>0.31243245439200001</v>
+        <v>0.31007344928500002</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="2"/>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22">
-        <f>0.6*K23/B22</f>
+        <f>0.6*K22/B22</f>
         <v>1.9652316179079747E-2</v>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
         <v>4.8235212263999999E-7</v>
       </c>
       <c r="K23" s="3">
-        <v>0.31007344928500002</v>
+        <v>0.30773410349500002</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="2"/>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23">
-        <f>0.6*K24/B23</f>
+        <f>0.6*K23/B23</f>
         <v>1.9651918638139247E-2</v>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
         <v>5.4894605907599998E-7</v>
       </c>
       <c r="K24" s="3">
-        <v>0.30773410349500002</v>
+        <v>0.30541530459400001</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="2"/>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24">
-        <f>0.6*K25/B24</f>
+        <f>0.6*K24/B24</f>
         <v>1.9651704542899967E-2</v>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
         <v>6.23584148107E-7</v>
       </c>
       <c r="K25" s="3">
-        <v>0.30541530459400001</v>
+        <v>0.30311272346500001</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="2"/>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25">
-        <f>0.6*K26/B25</f>
+        <f>0.6*K25/B25</f>
         <v>1.9651407492105123E-2</v>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
         <v>7.0718373316800004E-7</v>
       </c>
       <c r="K26" s="3">
-        <v>0.30311272346500001</v>
+        <v>0.30084229328899997</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="2"/>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26">
-        <f>0.6*K27/B26</f>
+        <f>0.6*K26/B26</f>
         <v>1.9652074418610489E-2</v>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
         <v>8.0076018293799995E-7</v>
       </c>
       <c r="K27" s="3">
-        <v>0.30084229328899997</v>
+        <v>0.29856639394000001</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="2"/>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27">
-        <f>0.6*K28/B27</f>
+        <f>0.6*K27/B27</f>
         <v>1.965126711063293E-2</v>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
         <v>9.0543560207100002E-7</v>
       </c>
       <c r="K28" s="3">
-        <v>0.29856639394000001</v>
+        <v>0.296333057678</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="2"/>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28">
-        <f>0.6*K29/B28</f>
+        <f>0.6*K28/B28</f>
         <v>1.9652134585122098E-2</v>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
         <v>1.02244990183E-6</v>
       </c>
       <c r="K29" s="3">
-        <v>0.296333057678</v>
+        <v>0.29410791954600002</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="2"/>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29">
-        <f>0.6*K30/B29</f>
+        <f>0.6*K29/B29</f>
         <v>1.965244018791433E-2</v>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
         <v>1.15317229058E-6</v>
       </c>
       <c r="K30" s="3">
-        <v>0.29410791954600002</v>
+        <v>0.29190465417900002</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30">
-        <f>0.6*K31/B30</f>
+        <f>0.6*K30/B30</f>
         <v>1.9653095816828243E-2</v>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
         <v>1.2991129151100001E-6</v>
       </c>
       <c r="K31" s="3">
-        <v>0.29190465417900002</v>
+        <v>0.28971950522099998</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="2"/>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31">
-        <f>0.6*K32/B31</f>
+        <f>0.6*K31/B31</f>
         <v>1.9653865723354595E-2</v>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
         <v>1.46193653067E-6</v>
       </c>
       <c r="K32" s="3">
-        <v>0.28971950522099998</v>
+        <v>0.28755333266100003</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="2"/>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32">
-        <f>0.6*K33/B32</f>
+        <f>0.6*K32/B32</f>
         <v>1.9654820493761285E-2</v>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
         <v>1.64347680043E-6</v>
       </c>
       <c r="K33" s="3">
-        <v>0.28755333266100003</v>
+        <v>0.28540578397799998</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="2"/>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33">
-        <f>0.6*K34/B33</f>
+        <f>0.6*K33/B33</f>
         <v>1.9655949757187048E-2</v>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
         <v>1.84575192933E-6</v>
       </c>
       <c r="K34" s="3">
-        <v>0.28540578397799998</v>
+        <v>0.283276805784</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="2"/>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34">
-        <f>0.6*K35/B34</f>
+        <f>0.6*K34/B34</f>
         <v>1.9657263339942228E-2</v>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
         <v>2.0709815156699998E-6</v>
       </c>
       <c r="K35" s="3">
-        <v>0.283276805784</v>
+        <v>0.28116636337099998</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="2"/>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="Q35" s="4"/>
       <c r="R35">
-        <f>0.6*K36/B35</f>
+        <f>0.6*K35/B35</f>
         <v>1.9658772586634385E-2</v>
       </c>
       <c r="T35">
@@ -9783,7 +9783,7 @@
         <v>2.3216062666800002E-6</v>
       </c>
       <c r="K36" s="3">
-        <v>0.28116636337099998</v>
+        <v>0.27907459153399999</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="2"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36">
-        <f>0.6*K37/B36</f>
+        <f>0.6*K36/B36</f>
         <v>1.9660501048185931E-2</v>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
         <v>2.6003042593500002E-6</v>
       </c>
       <c r="K37" s="3">
-        <v>0.27907459153399999</v>
+        <v>0.27700013829600001</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="2"/>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37">
-        <f>0.6*K38/B37</f>
+        <f>0.6*K37/B37</f>
         <v>1.9662367462115558E-2</v>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
         <v>2.9100153260100001E-6</v>
       </c>
       <c r="K38" s="3">
-        <v>0.27700013829600001</v>
+        <v>0.27494744083700001</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="2"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38">
-        <f>0.6*K39/B38</f>
+        <f>0.6*K38/B38</f>
         <v>1.9664701350845741E-2</v>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
         <v>3.25396235208E-6</v>
       </c>
       <c r="K39" s="3">
-        <v>0.27494744083700001</v>
+        <v>0.27289955798299997</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="2"/>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="Q39" s="4"/>
       <c r="R39">
-        <f>0.6*K40/B39</f>
+        <f>0.6*K39/B39</f>
         <v>1.9666303985099182E-2</v>
       </c>
     </row>
@@ -10039,7 +10039,7 @@
         <v>3.6356751894600002E-6</v>
       </c>
       <c r="K40" s="3">
-        <v>0.27289955798299997</v>
+        <v>0.27089561868599998</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="2"/>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="Q40" s="4"/>
       <c r="R40">
-        <f>0.6*K41/B40</f>
+        <f>0.6*K40/B40</f>
         <v>1.9670002146611375E-2</v>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
         <v>4.0590202223400002E-6</v>
       </c>
       <c r="K41" s="3">
-        <v>0.27089561868599998</v>
+        <v>0.26888554858000002</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="2"/>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="R41">
-        <f>0.6*K42/B41</f>
+        <f>0.6*K41/B41</f>
         <v>1.9672203935741026E-2</v>
       </c>
     </row>
@@ -10167,7 +10167,7 @@
         <v>4.5282335385900004E-6</v>
       </c>
       <c r="K42" s="3">
-        <v>0.26888554858000002</v>
+        <v>0.26690425441400001</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="2"/>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="Q42" s="4"/>
       <c r="R42">
-        <f>0.6*K43/B42</f>
+        <f>0.6*K42/B42</f>
         <v>1.9675444480368266E-2</v>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
         <v>5.0479274145200004E-6</v>
       </c>
       <c r="K43" s="3">
-        <v>0.26690425441400001</v>
+        <v>0.26493855365800001</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="2"/>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43">
-        <f>0.6*K44/B43</f>
+        <f>0.6*K43/B43</f>
         <v>1.9678784003279937E-2</v>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
         <v>5.62314930667E-6</v>
       </c>
       <c r="K44" s="3">
-        <v>0.26493855365800001</v>
+        <v>0.262989088609</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="2"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44">
-        <f>0.6*K45/B44</f>
+        <f>0.6*K44/B44</f>
         <v>1.9682281071093138E-2</v>
       </c>
     </row>
@@ -10359,7 +10359,7 @@
         <v>6.2594124084899999E-6</v>
       </c>
       <c r="K45" s="3">
-        <v>0.262989088609</v>
+        <v>0.26106105695199999</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="2"/>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="R45">
-        <f>0.6*K46/B45</f>
+        <f>0.6*K45/B45</f>
         <v>1.9686339883737931E-2</v>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
         <v>6.9627171817800003E-6</v>
       </c>
       <c r="K46" s="3">
-        <v>0.26106105695199999</v>
+        <v>0.25914680789</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="2"/>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="Q46" s="4"/>
       <c r="R46">
-        <f>0.6*K47/B46</f>
+        <f>0.6*K46/B46</f>
         <v>1.9690403601768349E-2</v>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
         <v>7.7396013967200008E-6</v>
       </c>
       <c r="K47" s="3">
-        <v>0.25914680789</v>
+        <v>0.257251762341</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="2"/>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="R47">
-        <f>0.6*K48/B47</f>
+        <f>0.6*K47/B47</f>
         <v>1.9694894624547311E-2</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
         <v>8.5971929743799999E-6</v>
       </c>
       <c r="K48" s="3">
-        <v>0.257251762341</v>
+        <v>0.25537363363299997</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="2"/>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="R48">
-        <f>0.6*K49/B48</f>
+        <f>0.6*K48/B48</f>
         <v>1.9699656780354607E-2</v>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
         <v>9.5432413703800005E-6</v>
       </c>
       <c r="K49" s="3">
-        <v>0.25537363363299997</v>
+        <v>0.25351346342300002</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="2"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="R49">
-        <f>0.6*K50/B49</f>
+        <f>0.6*K49/B49</f>
         <v>1.9704786375531979E-2</v>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         <v>1.0586170107E-5</v>
       </c>
       <c r="K50" s="3">
-        <v>0.25351346342300002</v>
+        <v>0.25166871913299999</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="2"/>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50">
-        <f>0.6*K51/B50</f>
+        <f>0.6*K50/B50</f>
         <v>1.9710103253052853E-2</v>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
         <v>1.1735127520799999E-5</v>
       </c>
       <c r="K51" s="3">
-        <v>0.25166871913299999</v>
+        <v>0.249848290104</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="2"/>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="R51">
-        <f>0.6*K52/B51</f>
+        <f>0.6*K51/B51</f>
         <v>1.9716321495097538E-2</v>
       </c>
     </row>
@@ -10807,7 +10807,7 @@
         <v>1.3000072101899999E-5</v>
       </c>
       <c r="K52" s="3">
-        <v>0.249848290104</v>
+        <v>0.24803002338399999</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="2"/>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="Q52" s="4"/>
       <c r="R52">
-        <f>0.6*K53/B52</f>
+        <f>0.6*K52/B52</f>
         <v>1.9721713915545853E-2</v>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
         <v>1.4391746428700001E-5</v>
       </c>
       <c r="K53" s="3">
-        <v>0.24803002338399999</v>
+        <v>0.246246828699</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="2"/>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="R53">
-        <f>0.6*K54/B53</f>
+        <f>0.6*K53/B53</f>
         <v>1.9728898605826106E-2</v>
       </c>
     </row>
@@ -10935,7 +10935,7 @@
         <v>1.5921815756600001E-5</v>
       </c>
       <c r="K54" s="3">
-        <v>0.246246828699</v>
+        <v>0.24447014763200001</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="2"/>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="Q54" s="4"/>
       <c r="R54">
-        <f>0.6*K55/B54</f>
+        <f>0.6*K54/B54</f>
         <v>1.9735631502448583E-2</v>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
         <v>1.76029136875E-5</v>
       </c>
       <c r="K55" s="3">
-        <v>0.24447014763200001</v>
+        <v>0.242710243883</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="2"/>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="Q55" s="4"/>
       <c r="R55">
-        <f>0.6*K56/B55</f>
+        <f>0.6*K55/B55</f>
         <v>1.9742739972420147E-2</v>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
         <v>1.9448700784600001E-5</v>
       </c>
       <c r="K56" s="3">
-        <v>0.242710243883</v>
+        <v>0.24096898131399999</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="2"/>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="Q56" s="4"/>
       <c r="R56">
-        <f>0.6*K57/B56</f>
+        <f>0.6*K56/B56</f>
         <v>1.9750394635743043E-2</v>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
         <v>2.1473943882599998E-5</v>
       </c>
       <c r="K57" s="3">
-        <v>0.24096898131399999</v>
+        <v>0.23925307835000001</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="2"/>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="Q57" s="4"/>
       <c r="R57">
-        <f>0.6*K58/B57</f>
+        <f>0.6*K57/B57</f>
         <v>1.9759173290620498E-2</v>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
         <v>2.3694599058600002E-5</v>
       </c>
       <c r="K58" s="3">
-        <v>0.23925307835000001</v>
+        <v>0.23753477748900001</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="2"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="Q58" s="4"/>
       <c r="R58">
-        <f>0.6*K59/B58</f>
+        <f>0.6*K58/B58</f>
         <v>1.9766806456784747E-2</v>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
         <v>2.61278751366E-5</v>
       </c>
       <c r="K59" s="3">
-        <v>0.23753477748900001</v>
+        <v>0.23585143399</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="2"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="Q59" s="4"/>
       <c r="R59">
-        <f>0.6*K60/B59</f>
+        <f>0.6*K59/B59</f>
         <v>1.9776397233381048E-2</v>
       </c>
     </row>
@@ -11319,7 +11319,7 @@
         <v>2.8792329465300001E-5</v>
       </c>
       <c r="K60" s="3">
-        <v>0.23585143399</v>
+        <v>0.2341728937</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="2"/>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="Q60" s="4"/>
       <c r="R60">
-        <f>0.6*K61/B60</f>
+        <f>0.6*K60/B60</f>
         <v>1.9785463776462786E-2</v>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
         <v>3.1707959710500001E-5</v>
       </c>
       <c r="K61" s="3">
-        <v>0.2341728937</v>
+        <v>0.232515140152</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="2"/>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="Q61" s="4"/>
       <c r="R61">
-        <f>0.6*K62/B61</f>
+        <f>0.6*K61/B61</f>
         <v>1.9795356372263286E-2</v>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
         <v>3.4896286930000002E-5</v>
       </c>
       <c r="K62" s="3">
-        <v>0.232515140152</v>
+        <v>0.230886212442</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="2"/>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="Q62" s="4"/>
       <c r="R62">
-        <f>0.6*K63/B62</f>
+        <f>0.6*K62/B62</f>
         <v>1.9806795609539907E-2</v>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
         <v>3.8380479120600001E-5</v>
       </c>
       <c r="K63" s="3">
-        <v>0.230886212442</v>
+        <v>0.22923777035199999</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="2"/>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="Q63" s="4"/>
       <c r="R63">
-        <f>0.6*K64/B63</f>
+        <f>0.6*K63/B63</f>
         <v>1.9815655619577037E-2</v>
       </c>
     </row>
@@ -11575,7 +11575,7 @@
         <v>4.2185403193E-5</v>
       </c>
       <c r="K64" s="3">
-        <v>0.22923777035199999</v>
+        <v>0.227651747455</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="2"/>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="Q64" s="4"/>
       <c r="R64">
-        <f>0.6*K65/B64</f>
+        <f>0.6*K64/B64</f>
         <v>1.9828999084523975E-2</v>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
         <v>4.6337784470099998E-5</v>
       </c>
       <c r="K65" s="3">
-        <v>0.227651747455</v>
+        <v>0.22604085264599999</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="2"/>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="Q65" s="4"/>
       <c r="R65">
-        <f>0.6*K66/B65</f>
+        <f>0.6*K65/B65</f>
         <v>1.9839307605840208E-2</v>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
         <v>5.0866298062299997E-5</v>
       </c>
       <c r="K66" s="3">
-        <v>0.22604085264599999</v>
+        <v>0.22447847265400001</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="2"/>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="Q66" s="4"/>
       <c r="R66">
-        <f>0.6*K67/B66</f>
+        <f>0.6*K66/B66</f>
         <v>1.9852982978566504E-2</v>
       </c>
     </row>
@@ -11767,7 +11767,7 @@
         <v>5.5801680556600003E-5</v>
       </c>
       <c r="K67" s="3">
-        <v>0.22447847265400001</v>
+        <v>0.222909371404</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" ref="L67:L130" si="11">-(C67*300*0.00981)/B67</f>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="Q67" s="4"/>
       <c r="R67">
-        <f>0.6*K68/B67</f>
+        <f>0.6*K67/B67</f>
         <v>1.9865211221446868E-2</v>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
         <v>6.1176868579200004E-5</v>
       </c>
       <c r="K68" s="3">
-        <v>0.222909371404</v>
+        <v>0.221365434305</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="11"/>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="Q68" s="4"/>
       <c r="R68">
-        <f>0.6*K69/B68</f>
+        <f>0.6*K68/B68</f>
         <v>1.9878815601479128E-2</v>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
         <v>6.7027094174700001E-5</v>
       </c>
       <c r="K69" s="3">
-        <v>0.221365434305</v>
+        <v>0.219834207182</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="11"/>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="Q69" s="4"/>
       <c r="R69">
-        <f>0.6*K70/B69</f>
+        <f>0.6*K69/B69</f>
         <v>1.9892716154244931E-2</v>
       </c>
     </row>
@@ -11959,7 +11959,7 @@
         <v>7.33900464956E-5</v>
       </c>
       <c r="K70" s="3">
-        <v>0.219834207182</v>
+        <v>0.21831867236399999</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="11"/>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="Q70" s="4"/>
       <c r="R70">
-        <f>0.6*K71/B70</f>
+        <f>0.6*K70/B70</f>
         <v>1.9907198273202972E-2</v>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
         <v>8.0305993845199996E-5</v>
       </c>
       <c r="K71" s="3">
-        <v>0.21831867236399999</v>
+        <v>0.21681773444800001</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="11"/>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="Q71" s="4"/>
       <c r="R71">
-        <f>0.6*K72/B71</f>
+        <f>0.6*K71/B71</f>
         <v>1.9922183458947213E-2</v>
       </c>
     </row>
@@ -12087,7 +12087,7 @@
         <v>8.7817928718999995E-5</v>
       </c>
       <c r="K72" s="3">
-        <v>0.21681773444800001</v>
+        <v>0.21533133797099999</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="11"/>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="Q72" s="4"/>
       <c r="R72">
-        <f>0.6*K73/B72</f>
+        <f>0.6*K72/B72</f>
         <v>1.993768615859574E-2</v>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
         <v>9.5971711231700006E-5</v>
       </c>
       <c r="K73" s="3">
-        <v>0.21533133797099999</v>
+        <v>0.21385912091199999</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="11"/>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="Q73" s="4"/>
       <c r="R73">
-        <f>0.6*K74/B73</f>
+        <f>0.6*K73/B73</f>
         <v>1.9953692491338677E-2</v>
       </c>
     </row>
@@ -12215,7 +12215,7 @@
         <v>1.04816219211E-4</v>
       </c>
       <c r="K74" s="3">
-        <v>0.21385912091199999</v>
+        <v>0.21240076579600001</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="11"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="Q74" s="4"/>
       <c r="R74">
-        <f>0.6*K75/B74</f>
+        <f>0.6*K74/B74</f>
         <v>1.997019194389581E-2</v>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
         <v>1.14403502127E-4</v>
       </c>
       <c r="K75" s="3">
-        <v>0.21240076579600001</v>
+        <v>0.210955909902</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" si="11"/>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="Q75" s="4"/>
       <c r="R75">
-        <f>0.6*K76/B75</f>
+        <f>0.6*K75/B75</f>
         <v>1.9987169033896038E-2</v>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
         <v>1.24788939302E-4</v>
       </c>
       <c r="K76" s="3">
-        <v>0.210955909902</v>
+        <v>0.20952414137799999</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="11"/>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="Q76" s="4"/>
       <c r="R76">
-        <f>0.6*K77/B76</f>
+        <f>0.6*K76/B76</f>
         <v>2.0004602721520208E-2</v>
       </c>
     </row>
@@ -12407,7 +12407,7 @@
         <v>1.3603140192700001E-4</v>
       </c>
       <c r="K77" s="3">
-        <v>0.20952414137799999</v>
+        <v>0.20810509837899999</v>
       </c>
       <c r="L77" s="4">
         <f t="shared" si="11"/>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="Q77" s="4"/>
       <c r="R77">
-        <f>0.6*K78/B77</f>
+        <f>0.6*K77/B77</f>
         <v>2.0022475706654313E-2</v>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
         <v>1.4819341897100001E-4</v>
       </c>
       <c r="K78" s="3">
-        <v>0.20810509837899999</v>
+        <v>0.20669805196800001</v>
       </c>
       <c r="L78" s="4">
         <f t="shared" si="11"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="Q78" s="4"/>
       <c r="R78">
-        <f>0.6*K79/B78</f>
+        <f>0.6*K78/B78</f>
         <v>2.0040734182133983E-2</v>
       </c>
     </row>
@@ -12535,7 +12535,7 @@
         <v>1.6134134534999999E-4</v>
       </c>
       <c r="K79" s="3">
-        <v>0.20669805196800001</v>
+        <v>0.20530314624000001</v>
       </c>
       <c r="L79" s="4">
         <f t="shared" si="11"/>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="Q79" s="4"/>
       <c r="R79">
-        <f>0.6*K80/B79</f>
+        <f>0.6*K79/B79</f>
         <v>2.0059407324704074E-2</v>
       </c>
     </row>
@@ -12599,7 +12599,7 @@
         <v>1.7554551335899999E-4</v>
       </c>
       <c r="K80" s="3">
-        <v>0.20530314624000001</v>
+        <v>0.20391874703099999</v>
       </c>
       <c r="L80" s="4">
         <f t="shared" si="11"/>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="Q80" s="4"/>
       <c r="R80">
-        <f>0.6*K81/B80</f>
+        <f>0.6*K80/B80</f>
         <v>2.0078350142442847E-2</v>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
         <v>1.90880274873E-4</v>
       </c>
       <c r="K81" s="3">
-        <v>0.20391874703099999</v>
+        <v>0.20254508625000001</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" si="11"/>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="Q81" s="4"/>
       <c r="R81">
-        <f>0.6*K82/B81</f>
+        <f>0.6*K81/B81</f>
         <v>2.0097596967183697E-2</v>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
         <v>2.0742469381200001E-4</v>
       </c>
       <c r="K82" s="3">
-        <v>0.20254508625000001</v>
+        <v>0.201181884102</v>
       </c>
       <c r="L82" s="4">
         <f t="shared" si="11"/>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="Q82" s="4"/>
       <c r="R82">
-        <f>0.6*K83/B82</f>
+        <f>0.6*K82/B82</f>
         <v>2.0117132151458963E-2</v>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
         <v>2.25262173161E-4</v>
       </c>
       <c r="K83" s="3">
-        <v>0.201181884102</v>
+        <v>0.19982690047599999</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" si="11"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="Q83" s="4"/>
       <c r="R83">
-        <f>0.6*K84/B83</f>
+        <f>0.6*K83/B83</f>
         <v>2.0136741737289184E-2</v>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
         <v>2.4448081858E-4</v>
       </c>
       <c r="K84" s="3">
-        <v>0.19982690047599999</v>
+        <v>0.198484497102</v>
       </c>
       <c r="L84" s="4">
         <f t="shared" si="11"/>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="Q84" s="4"/>
       <c r="R84">
-        <f>0.6*K85/B84</f>
+        <f>0.6*K84/B84</f>
         <v>2.0156873744293393E-2</v>
       </c>
     </row>
@@ -12919,7 +12919,7 @@
         <v>2.6517364172100002E-4</v>
       </c>
       <c r="K85" s="3">
-        <v>0.198484497102</v>
+        <v>0.19714236583399999</v>
       </c>
       <c r="L85" s="4">
         <f t="shared" si="11"/>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="Q85" s="4"/>
       <c r="R85">
-        <f>0.6*K86/B85</f>
+        <f>0.6*K85/B85</f>
         <v>2.0176287522665558E-2</v>
       </c>
     </row>
@@ -12983,7 +12983,7 @@
         <v>2.8743917144599999E-4</v>
       </c>
       <c r="K86" s="3">
-        <v>0.19714236583399999</v>
+        <v>0.19581509709</v>
       </c>
       <c r="L86" s="4">
         <f t="shared" si="11"/>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="Q86" s="4"/>
       <c r="R86">
-        <f>0.6*K87/B86</f>
+        <f>0.6*K86/B86</f>
         <v>2.0196468176275916E-2</v>
       </c>
     </row>
@@ -13047,7 +13047,7 @@
         <v>3.1138025670999998E-4</v>
       </c>
       <c r="K87" s="3">
-        <v>0.19581509709</v>
+        <v>0.194489552909</v>
       </c>
       <c r="L87" s="4">
         <f t="shared" si="11"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="Q87" s="4"/>
       <c r="R87">
-        <f>0.6*K88/B87</f>
+        <f>0.6*K87/B87</f>
         <v>2.0216076864297161E-2</v>
       </c>
     </row>
@@ -13111,7 +13111,7 @@
         <v>3.3710565302700002E-4</v>
       </c>
       <c r="K88" s="3">
-        <v>0.194489552909</v>
+        <v>0.19317107556400001</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" si="11"/>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="Q88" s="4"/>
       <c r="R88">
-        <f>0.6*K89/B88</f>
+        <f>0.6*K88/B88</f>
         <v>2.0235658008870987E-2</v>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
         <v>3.64729692297E-4</v>
       </c>
       <c r="K89" s="3">
-        <v>0.19317107556400001</v>
+        <v>0.191856546845</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" si="11"/>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="Q89" s="4"/>
       <c r="R89">
-        <f>0.6*K90/B89</f>
+        <f>0.6*K89/B89</f>
         <v>2.025488439981513E-2</v>
       </c>
     </row>
@@ -13239,7 +13239,7 @@
         <v>3.9437248212200002E-4</v>
       </c>
       <c r="K90" s="3">
-        <v>0.191856546845</v>
+        <v>0.190545791715</v>
       </c>
       <c r="L90" s="4">
         <f t="shared" si="11"/>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="Q90" s="4"/>
       <c r="R90">
-        <f>0.6*K91/B90</f>
+        <f>0.6*K90/B90</f>
         <v>2.027372920174593E-2</v>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
         <v>4.2616005928799999E-4</v>
       </c>
       <c r="K91" s="3">
-        <v>0.190545791715</v>
+        <v>0.189237618706</v>
       </c>
       <c r="L91" s="4">
         <f t="shared" si="11"/>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="Q91" s="4"/>
       <c r="R91">
-        <f>0.6*K92/B91</f>
+        <f>0.6*K91/B91</f>
         <v>2.0292055728369368E-2</v>
       </c>
     </row>
@@ -13367,7 +13367,7 @@
         <v>4.60224553006E-4</v>
       </c>
       <c r="K92" s="3">
-        <v>0.189237618706</v>
+        <v>0.18793131995099999</v>
       </c>
       <c r="L92" s="4">
         <f t="shared" si="11"/>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="Q92" s="4"/>
       <c r="R92">
-        <f>0.6*K93/B92</f>
+        <f>0.6*K92/B92</f>
         <v>2.0309774409696491E-2</v>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
         <v>4.9670433720300005E-4</v>
       </c>
       <c r="K93" s="3">
-        <v>0.18793131995099999</v>
+        <v>0.186625350468</v>
       </c>
       <c r="L93" s="4">
         <f t="shared" si="11"/>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="Q93" s="4"/>
       <c r="R93">
-        <f>0.6*K94/B93</f>
+        <f>0.6*K93/B93</f>
         <v>2.0326701269051853E-2</v>
       </c>
     </row>
@@ -13495,7 +13495,7 @@
         <v>5.3574416970600001E-4</v>
       </c>
       <c r="K94" s="3">
-        <v>0.186625350468</v>
+        <v>0.18531952416200001</v>
       </c>
       <c r="L94" s="4">
         <f t="shared" si="11"/>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="Q94" s="4"/>
       <c r="R94">
-        <f>0.6*K95/B94</f>
+        <f>0.6*K94/B94</f>
         <v>2.0342794609392145E-2</v>
       </c>
     </row>
@@ -13559,7 +13559,7 @@
         <v>5.7749512037899998E-4</v>
       </c>
       <c r="K95" s="3">
-        <v>0.18531952416200001</v>
+        <v>0.184011250854</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" si="11"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="Q95" s="4"/>
       <c r="R95">
-        <f>0.6*K96/B95</f>
+        <f>0.6*K95/B95</f>
         <v>2.0357745556113149E-2</v>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
         <v>6.2211497959199996E-4</v>
       </c>
       <c r="K96" s="3">
-        <v>0.184011250854</v>
+        <v>0.182703979499</v>
       </c>
       <c r="L96" s="4">
         <f t="shared" si="11"/>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="Q96" s="4"/>
       <c r="R96">
-        <f>0.6*K97/B96</f>
+        <f>0.6*K96/B96</f>
         <v>2.0371906932534288E-2</v>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
         <v>6.6976844249799999E-4</v>
       </c>
       <c r="K97" s="3">
-        <v>0.182703979499</v>
+        <v>0.181380162161</v>
       </c>
       <c r="L97" s="4">
         <f t="shared" si="11"/>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="Q97" s="4"/>
       <c r="R97">
-        <f>0.6*K98/B97</f>
+        <f>0.6*K97/B97</f>
         <v>2.0383286455521808E-2</v>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
         <v>7.2062692024500003E-4</v>
       </c>
       <c r="K98" s="3">
-        <v>0.181380162161</v>
+        <v>0.18007785123100001</v>
       </c>
       <c r="L98" s="4">
         <f t="shared" si="11"/>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="Q98" s="4"/>
       <c r="R98">
-        <f>0.6*K99/B98</f>
+        <f>0.6*K98/B98</f>
         <v>2.0396111353772808E-2</v>
       </c>
     </row>
@@ -13815,7 +13815,7 @@
         <v>7.7486891080199996E-4</v>
       </c>
       <c r="K99" s="3">
-        <v>0.18007785123100001</v>
+        <v>0.178745580145</v>
       </c>
       <c r="L99" s="4">
         <f t="shared" si="11"/>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="Q99" s="4"/>
       <c r="R99">
-        <f>0.6*K100/B99</f>
+        <f>0.6*K99/B99</f>
         <v>2.040455783715683E-2</v>
       </c>
     </row>
@@ -13879,7 +13879,7 @@
         <v>8.3268014463499997E-4</v>
       </c>
       <c r="K100" s="3">
-        <v>0.178745580145</v>
+        <v>0.177419731479</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="11"/>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="Q100" s="4"/>
       <c r="R100">
-        <f>0.6*K101/B100</f>
+        <f>0.6*K100/B100</f>
         <v>2.0412679246109473E-2</v>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
         <v>8.9425312920500002E-4</v>
       </c>
       <c r="K101" s="3">
-        <v>0.177419731479</v>
+        <v>0.176078216333</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="11"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="Q101" s="4"/>
       <c r="R101">
-        <f>0.6*K102/B101</f>
+        <f>0.6*K101/B101</f>
         <v>2.0417910808900409E-2</v>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
         <v>9.5978716805300004E-4</v>
       </c>
       <c r="K102" s="3">
-        <v>0.176078216333</v>
+        <v>0.17473953229899999</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" si="11"/>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="Q102" s="4"/>
       <c r="R102">
-        <f>0.6*K103/B102</f>
+        <f>0.6*K102/B102</f>
         <v>2.042233031886017E-2</v>
       </c>
     </row>
@@ -14071,7 +14071,7 @@
         <v>1.02948975665E-3</v>
       </c>
       <c r="K103" s="3">
-        <v>0.17473953229899999</v>
+        <v>0.17338260306600001</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" si="11"/>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="Q103" s="4"/>
       <c r="R103">
-        <f>0.6*K104/B103</f>
+        <f>0.6*K103/B103</f>
         <v>2.0423437571855003E-2</v>
       </c>
     </row>
@@ -14135,7 +14135,7 @@
         <v>1.1035749808E-3</v>
       </c>
       <c r="K104" s="3">
-        <v>0.17338260306600001</v>
+        <v>0.172020176306</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" si="11"/>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="Q104" s="4"/>
       <c r="R104">
-        <f>0.6*K105/B104</f>
+        <f>0.6*K104/B104</f>
         <v>2.0422649936241596E-2</v>
       </c>
     </row>
@@ -14199,7 +14199,7 @@
         <v>1.18226385685E-3</v>
       </c>
       <c r="K105" s="3">
-        <v>0.172020176306</v>
+        <v>0.170646289447</v>
       </c>
       <c r="L105" s="4">
         <f t="shared" si="11"/>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="Q105" s="4"/>
       <c r="R105">
-        <f>0.6*K106/B105</f>
+        <f>0.6*K105/B105</f>
         <v>2.0419203790455857E-2</v>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
         <v>1.2657846241100001E-3</v>
       </c>
       <c r="K106" s="3">
-        <v>0.170646289447</v>
+        <v>0.169261847706</v>
       </c>
       <c r="L106" s="4">
         <f t="shared" si="11"/>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="Q106" s="4"/>
       <c r="R106">
-        <f>0.6*K107/B106</f>
+        <f>0.6*K106/B106</f>
         <v>2.04131348026148E-2</v>
       </c>
     </row>
@@ -14327,7 +14327,7 @@
         <v>1.3543725710899999E-3</v>
       </c>
       <c r="K107" s="3">
-        <v>0.169261847706</v>
+        <v>0.167861283163</v>
       </c>
       <c r="L107" s="4">
         <f t="shared" si="11"/>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="Q107" s="4"/>
       <c r="R107">
-        <f>0.6*K108/B107</f>
+        <f>0.6*K107/B107</f>
         <v>2.0403694838482558E-2</v>
       </c>
     </row>
@@ -14391,7 +14391,7 @@
         <v>1.44826983087E-3</v>
       </c>
       <c r="K108" s="3">
-        <v>0.167861283163</v>
+        <v>0.16646317494599999</v>
       </c>
       <c r="L108" s="4">
         <f t="shared" si="11"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="Q108" s="4"/>
       <c r="R108">
-        <f>0.6*K109/B108</f>
+        <f>0.6*K108/B108</f>
         <v>2.0393066118288859E-2</v>
       </c>
     </row>
@@ -14455,7 +14455,7 @@
         <v>1.5477256701399999E-3</v>
       </c>
       <c r="K109" s="3">
-        <v>0.16646317494599999</v>
+        <v>0.16501962688999999</v>
       </c>
       <c r="L109" s="4">
         <f t="shared" si="11"/>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="Q109" s="4"/>
       <c r="R109">
-        <f>0.6*K110/B109</f>
+        <f>0.6*K109/B109</f>
         <v>2.0375310982047097E-2</v>
       </c>
     </row>
@@ -14519,7 +14519,7 @@
         <v>1.6529955039800001E-3</v>
       </c>
       <c r="K110" s="3">
-        <v>0.16501962688999999</v>
+        <v>0.16362238225</v>
       </c>
       <c r="L110" s="4">
         <f t="shared" si="11"/>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="Q110" s="4"/>
       <c r="R110">
-        <f>0.6*K111/B110</f>
+        <f>0.6*K110/B110</f>
         <v>2.0361636144787382E-2</v>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
         <v>1.76434218206E-3</v>
       </c>
       <c r="K111" s="3">
-        <v>0.16362238225</v>
+        <v>0.16213475887100001</v>
       </c>
       <c r="L111" s="4">
         <f t="shared" si="11"/>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="Q111" s="4"/>
       <c r="R111">
-        <f>0.6*K112/B111</f>
+        <f>0.6*K111/B111</f>
         <v>2.0335043942286069E-2</v>
       </c>
     </row>
@@ -14647,7 +14647,7 @@
         <v>1.8820342195899999E-3</v>
       </c>
       <c r="K112" s="3">
-        <v>0.16213475887100001</v>
+        <v>0.16070182994099999</v>
       </c>
       <c r="L112" s="4">
         <f t="shared" si="11"/>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="Q112" s="4"/>
       <c r="R112">
-        <f>0.6*K113/B112</f>
+        <f>0.6*K112/B112</f>
         <v>2.0313482067254914E-2</v>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
         <v>2.0063461771200001E-3</v>
       </c>
       <c r="K113" s="3">
-        <v>0.16070182994099999</v>
+        <v>0.1592201533</v>
       </c>
       <c r="L113" s="4">
         <f t="shared" si="11"/>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="Q113" s="4"/>
       <c r="R113">
-        <f>0.6*K114/B113</f>
+        <f>0.6*K113/B113</f>
         <v>2.0283950629279689E-2</v>
       </c>
     </row>
@@ -14775,7 +14775,7 @@
         <v>2.1375595295700001E-3</v>
       </c>
       <c r="K114" s="3">
-        <v>0.1592201533</v>
+        <v>0.15774077977000001</v>
       </c>
       <c r="L114" s="4">
         <f t="shared" si="11"/>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="Q114" s="4"/>
       <c r="R114">
-        <f>0.6*K115/B114</f>
+        <f>0.6*K114/B114</f>
         <v>2.0252773030991322E-2</v>
       </c>
     </row>
@@ -14839,7 +14839,7 @@
         <v>2.27596081776E-3</v>
       </c>
       <c r="K115" s="3">
-        <v>0.15774077977000001</v>
+        <v>0.15623610864900001</v>
       </c>
       <c r="L115" s="4">
         <f t="shared" si="11"/>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="Q115" s="4"/>
       <c r="R115">
-        <f>0.6*K116/B115</f>
+        <f>0.6*K115/B115</f>
         <v>2.0216348065687218E-2</v>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
         <v>2.4218420884099998E-3</v>
       </c>
       <c r="K116" s="3">
-        <v>0.15623610864900001</v>
+        <v>0.15473004506900001</v>
       </c>
       <c r="L116" s="4">
         <f t="shared" si="11"/>
@@ -14927,7 +14927,7 @@
       </c>
       <c r="Q116" s="4"/>
       <c r="R116">
-        <f>0.6*K117/B116</f>
+        <f>0.6*K116/B116</f>
         <v>2.0177651700752804E-2</v>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
         <v>2.57550051171E-3</v>
       </c>
       <c r="K117" s="3">
-        <v>0.15473004506900001</v>
+        <v>0.15320882694999999</v>
       </c>
       <c r="L117" s="4">
         <f t="shared" si="11"/>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="Q117" s="4"/>
       <c r="R117">
-        <f>0.6*K118/B117</f>
+        <f>0.6*K117/B117</f>
         <v>2.0134829121024704E-2</v>
       </c>
     </row>
@@ -15031,7 +15031,7 @@
         <v>2.7372383967400001E-3</v>
       </c>
       <c r="K118" s="3">
-        <v>0.15320882694999999</v>
+        <v>0.151675952961</v>
       </c>
       <c r="L118" s="4">
         <f t="shared" si="11"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="Q118" s="4"/>
       <c r="R118">
-        <f>0.6*K119/B118</f>
+        <f>0.6*K118/B118</f>
         <v>2.0088240945815437E-2</v>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
         <v>2.9073624269199999E-3</v>
       </c>
       <c r="K119" s="3">
-        <v>0.151675952961</v>
+        <v>0.15012833598100001</v>
       </c>
       <c r="L119" s="4">
         <f t="shared" si="11"/>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="Q119" s="4"/>
       <c r="R119">
-        <f>0.6*K120/B119</f>
+        <f>0.6*K119/B119</f>
         <v>2.0037385626113034E-2</v>
       </c>
     </row>
@@ -15159,7 +15159,7 @@
         <v>3.0861832560400001E-3</v>
       </c>
       <c r="K120" s="3">
-        <v>0.15012833598100001</v>
+        <v>0.14858373064700001</v>
       </c>
       <c r="L120" s="4">
         <f t="shared" si="11"/>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="Q120" s="4"/>
       <c r="R120">
-        <f>0.6*K121/B120</f>
+        <f>0.6*K120/B120</f>
         <v>1.9984548047141924E-2</v>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
         <v>3.27401577339E-3</v>
       </c>
       <c r="K121" s="3">
-        <v>0.14858373064700001</v>
+        <v>0.14702611986399999</v>
       </c>
       <c r="L121" s="4">
         <f t="shared" si="11"/>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="Q121" s="4"/>
       <c r="R121">
-        <f>0.6*K122/B121</f>
+        <f>0.6*K121/B121</f>
         <v>1.9927526810004866E-2</v>
       </c>
     </row>
@@ -15287,7 +15287,7 @@
         <v>3.4711787100899999E-3</v>
       </c>
       <c r="K122" s="3">
-        <v>0.14702611986399999</v>
+        <v>0.14545505223899999</v>
       </c>
       <c r="L122" s="4">
         <f t="shared" si="11"/>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="Q122" s="4"/>
       <c r="R122">
-        <f>0.6*K123/B122</f>
+        <f>0.6*K122/B122</f>
         <v>1.986616305008294E-2</v>
       </c>
     </row>
@@ -15351,7 +15351,7 @@
         <v>3.6779933825799999E-3</v>
       </c>
       <c r="K123" s="3">
-        <v>0.14545505223899999</v>
+        <v>0.14387159317699999</v>
       </c>
       <c r="L123" s="4">
         <f t="shared" si="11"/>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="Q123" s="4"/>
       <c r="R123">
-        <f>0.6*K124/B123</f>
+        <f>0.6*K123/B123</f>
         <v>1.9800503534781088E-2</v>
       </c>
     </row>
@@ -15415,7 +15415,7 @@
         <v>3.89478318825E-3</v>
       </c>
       <c r="K124" s="3">
-        <v>0.14387159317699999</v>
+        <v>0.14232243767399999</v>
       </c>
       <c r="L124" s="4">
         <f t="shared" si="11"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="Q124" s="4"/>
       <c r="R124">
-        <f>0.6*K125/B124</f>
+        <f>0.6*K124/B124</f>
         <v>1.9736927731945988E-2</v>
       </c>
     </row>
@@ -15479,7 +15479,7 @@
         <v>4.1218756980500003E-3</v>
       </c>
       <c r="K125" s="3">
-        <v>0.14232243767399999</v>
+        <v>0.140720554489</v>
       </c>
       <c r="L125" s="4">
         <f t="shared" si="11"/>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="Q125" s="4"/>
       <c r="R125">
-        <f>0.6*K126/B125</f>
+        <f>0.6*K125/B125</f>
         <v>1.9663374845842064E-2</v>
       </c>
     </row>
@@ -15543,7 +15543,7 @@
         <v>4.3595997609999996E-3</v>
       </c>
       <c r="K126" s="3">
-        <v>0.140720554489</v>
+        <v>0.139150738139</v>
       </c>
       <c r="L126" s="4">
         <f t="shared" si="11"/>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="Q126" s="4"/>
       <c r="R126">
-        <f>0.6*K127/B126</f>
+        <f>0.6*K126/B126</f>
         <v>1.9591516529759715E-2</v>
       </c>
     </row>
@@ -15607,7 +15607,7 @@
         <v>4.6082850444600001E-3</v>
       </c>
       <c r="K127" s="3">
-        <v>0.139150738139</v>
+        <v>0.13756293119900001</v>
       </c>
       <c r="L127" s="4">
         <f t="shared" si="11"/>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="Q127" s="4"/>
       <c r="R127">
-        <f>0.6*K128/B127</f>
+        <f>0.6*K127/B127</f>
         <v>1.9514343370017416E-2</v>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
         <v>4.8682633011199999E-3</v>
       </c>
       <c r="K128" s="3">
-        <v>0.13756293119900001</v>
+        <v>0.13598417884200001</v>
       </c>
       <c r="L128" s="4">
         <f t="shared" si="11"/>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="Q128" s="4"/>
       <c r="R128">
-        <f>0.6*K129/B128</f>
+        <f>0.6*K128/B128</f>
         <v>1.9435600155110647E-2</v>
       </c>
     </row>
@@ -15735,7 +15735,7 @@
         <v>5.1398665310099997E-3</v>
       </c>
       <c r="K129" s="3">
-        <v>0.13598417884200001</v>
+        <v>0.13440324592200001</v>
       </c>
       <c r="L129" s="4">
         <f t="shared" si="11"/>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="Q129" s="4"/>
       <c r="R129">
-        <f>0.6*K130/B129</f>
+        <f>0.6*K129/B129</f>
         <v>1.9353663676640327E-2</v>
       </c>
     </row>
@@ -15799,7 +15799,7 @@
         <v>5.4234273227699997E-3</v>
       </c>
       <c r="K130" s="3">
-        <v>0.13440324592200001</v>
+        <v>0.132841183428</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" si="11"/>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="Q130" s="4"/>
       <c r="R130">
-        <f>0.6*K131/B130</f>
+        <f>0.6*K130/B130</f>
         <v>1.9271534706934341E-2</v>
       </c>
     </row>
@@ -15863,7 +15863,7 @@
         <v>5.7192789854800001E-3</v>
       </c>
       <c r="K131" s="3">
-        <v>0.132841183428</v>
+        <v>0.13125462019100001</v>
       </c>
       <c r="L131" s="4">
         <f t="shared" ref="L131:L194" si="20">-(C131*300*0.00981)/B131</f>
@@ -15887,7 +15887,7 @@
       </c>
       <c r="Q131" s="4"/>
       <c r="R131">
-        <f>0.6*K132/B131</f>
+        <f>0.6*K131/B131</f>
         <v>1.9182912249608206E-2</v>
       </c>
     </row>
@@ -15927,7 +15927,7 @@
         <v>6.0277533475100002E-3</v>
       </c>
       <c r="K132" s="3">
-        <v>0.13125462019100001</v>
+        <v>0.12973432562199999</v>
       </c>
       <c r="L132" s="4">
         <f t="shared" si="20"/>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="Q132" s="4"/>
       <c r="R132">
-        <f>0.6*K133/B132</f>
+        <f>0.6*K132/B132</f>
         <v>1.9101011612972608E-2</v>
       </c>
     </row>
@@ -15991,7 +15991,7 @@
         <v>6.3491837087500001E-3</v>
       </c>
       <c r="K133" s="3">
-        <v>0.12973432562199999</v>
+        <v>0.12812337595699999</v>
       </c>
       <c r="L133" s="4">
         <f t="shared" si="20"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="Q133" s="4"/>
       <c r="R133">
-        <f>0.6*K134/B133</f>
+        <f>0.6*K133/B133</f>
         <v>1.900280246253757E-2</v>
       </c>
     </row>
@@ -16055,7 +16055,7 @@
         <v>6.6838990938999998E-3</v>
       </c>
       <c r="K134" s="3">
-        <v>0.12812337595699999</v>
+        <v>0.12662561465800001</v>
       </c>
       <c r="L134" s="4">
         <f t="shared" si="20"/>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="Q134" s="4"/>
       <c r="R134">
-        <f>0.6*K135/B134</f>
+        <f>0.6*K134/B134</f>
         <v>1.8918304301711743E-2</v>
       </c>
     </row>
@@ -16119,7 +16119,7 @@
         <v>7.0322276456999998E-3</v>
       </c>
       <c r="K135" s="3">
-        <v>0.12662561465800001</v>
+        <v>0.12509532908400001</v>
       </c>
       <c r="L135" s="4">
         <f t="shared" si="20"/>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="Q135" s="4"/>
       <c r="R135">
-        <f>0.6*K136/B135</f>
+        <f>0.6*K135/B135</f>
         <v>1.8826038438359879E-2</v>
       </c>
     </row>
@@ -16183,7 +16183,7 @@
         <v>7.39450007803E-3</v>
       </c>
       <c r="K136" s="3">
-        <v>0.12509532908400001</v>
+        <v>0.123575720431</v>
       </c>
       <c r="L136" s="4">
         <f t="shared" si="20"/>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="Q136" s="4"/>
       <c r="R136">
-        <f>0.6*K137/B136</f>
+        <f>0.6*K136/B136</f>
         <v>1.8732371030416532E-2</v>
       </c>
     </row>
@@ -16247,7 +16247,7 @@
         <v>7.7710414000799997E-3</v>
       </c>
       <c r="K137" s="3">
-        <v>0.123575720431</v>
+        <v>0.122097034422</v>
       </c>
       <c r="L137" s="4">
         <f t="shared" si="20"/>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="Q137" s="4"/>
       <c r="R137">
-        <f>0.6*K138/B137</f>
+        <f>0.6*K137/B137</f>
         <v>1.864192605475708E-2</v>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
         <v>8.1621753632399995E-3</v>
       </c>
       <c r="K138" s="3">
-        <v>0.122097034422</v>
+        <v>0.120619204646</v>
       </c>
       <c r="L138" s="4">
         <f t="shared" si="20"/>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="Q138" s="4"/>
       <c r="R138">
-        <f>0.6*K139/B138</f>
+        <f>0.6*K138/B138</f>
         <v>1.8548681467396001E-2</v>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
         <v>8.5682257792000002E-3</v>
       </c>
       <c r="K139" s="3">
-        <v>0.120619204646</v>
+        <v>0.119139279377</v>
       </c>
       <c r="L139" s="4">
         <f t="shared" si="20"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="Q139" s="4"/>
       <c r="R139">
-        <f>0.6*K140/B139</f>
+        <f>0.6*K139/B139</f>
         <v>1.8452144764068184E-2</v>
       </c>
     </row>
@@ -16439,7 +16439,7 @@
         <v>8.9895096779900006E-3</v>
       </c>
       <c r="K140" s="3">
-        <v>0.119139279377</v>
+        <v>0.11769779346000001</v>
       </c>
       <c r="L140" s="4">
         <f t="shared" si="20"/>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="Q140" s="4"/>
       <c r="R140">
-        <f>0.6*K141/B140</f>
+        <f>0.6*K140/B140</f>
         <v>1.8358590719535588E-2</v>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
         <v>9.4263410195300004E-3</v>
       </c>
       <c r="K141" s="3">
-        <v>0.11769779346000001</v>
+        <v>0.11630772076199999</v>
       </c>
       <c r="L141" s="4">
         <f t="shared" si="20"/>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="Q141" s="4"/>
       <c r="R141">
-        <f>0.6*K142/B141</f>
+        <f>0.6*K141/B141</f>
         <v>1.8270188664855132E-2</v>
       </c>
     </row>
@@ -16567,7 +16567,7 @@
         <v>9.8790351690900002E-3</v>
       </c>
       <c r="K142" s="3">
-        <v>0.11630772076199999</v>
+        <v>0.11490900332700001</v>
       </c>
       <c r="L142" s="4">
         <f t="shared" si="20"/>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="Q142" s="4"/>
       <c r="R142">
-        <f>0.6*K143/B142</f>
+        <f>0.6*K142/B142</f>
         <v>1.8177627911103368E-2</v>
       </c>
     </row>
@@ -16631,7 +16631,7 @@
         <v>1.03479041381E-2</v>
       </c>
       <c r="K143" s="3">
-        <v>0.11490900332700001</v>
+        <v>0.11353757123</v>
       </c>
       <c r="L143" s="4">
         <f t="shared" si="20"/>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="Q143" s="4"/>
       <c r="R143">
-        <f>0.6*K144/B143</f>
+        <f>0.6*K143/B143</f>
         <v>1.8086557632057573E-2</v>
       </c>
     </row>
@@ -16695,7 +16695,7 @@
         <v>1.0833254007800001E-2</v>
       </c>
       <c r="K144" s="3">
-        <v>0.11353757123</v>
+        <v>0.11220412652800001</v>
       </c>
       <c r="L144" s="4">
         <f t="shared" si="20"/>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="Q144" s="4"/>
       <c r="R144">
-        <f>0.6*K145/B144</f>
+        <f>0.6*K144/B144</f>
         <v>1.7998779742306698E-2</v>
       </c>
     </row>
@@ -16759,7 +16759,7 @@
         <v>1.1335389075000001E-2</v>
       </c>
       <c r="K145" s="3">
-        <v>0.11220412652800001</v>
+        <v>0.110874566231</v>
       </c>
       <c r="L145" s="4">
         <f t="shared" si="20"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="Q145" s="4"/>
       <c r="R145">
-        <f>0.6*K146/B145</f>
+        <f>0.6*K145/B145</f>
         <v>1.7908919559308623E-2</v>
       </c>
     </row>
@@ -16823,7 +16823,7 @@
         <v>1.1854609165E-2</v>
       </c>
       <c r="K146" s="3">
-        <v>0.110874566231</v>
+        <v>0.109607888423</v>
       </c>
       <c r="L146" s="4">
         <f t="shared" si="20"/>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="Q146" s="4"/>
       <c r="R146">
-        <f>0.6*K147/B146</f>
+        <f>0.6*K146/B146</f>
         <v>1.7826555540036225E-2</v>
       </c>
     </row>
@@ -16887,7 +16887,7 @@
         <v>1.2391212075500001E-2</v>
       </c>
       <c r="K147" s="3">
-        <v>0.109607888423</v>
+        <v>0.10832529897400001</v>
       </c>
       <c r="L147" s="4">
         <f t="shared" si="20"/>
@@ -16911,7 +16911,7 @@
       </c>
       <c r="Q147" s="4"/>
       <c r="R147">
-        <f>0.6*K148/B147</f>
+        <f>0.6*K147/B147</f>
         <v>1.7739031510016715E-2</v>
       </c>
     </row>
@@ -16951,7 +16951,7 @@
         <v>1.29454910787E-2</v>
       </c>
       <c r="K148" s="3">
-        <v>0.10832529897400001</v>
+        <v>0.10710834584700001</v>
       </c>
       <c r="L148" s="4">
         <f t="shared" si="20"/>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="Q148" s="4"/>
       <c r="R148">
-        <f>0.6*K149/B148</f>
+        <f>0.6*K148/B148</f>
         <v>1.7659689002571314E-2</v>
       </c>
     </row>
@@ -17015,7 +17015,7 @@
         <v>1.35177352389E-2</v>
       </c>
       <c r="K149" s="3">
-        <v>0.10710834584700001</v>
+        <v>0.105909235044</v>
       </c>
       <c r="L149" s="4">
         <f t="shared" si="20"/>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="Q149" s="4"/>
       <c r="R149">
-        <f>0.6*K150/B149</f>
+        <f>0.6*K149/B149</f>
         <v>1.7580856011455186E-2</v>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
         <v>1.4108232799800001E-2</v>
       </c>
       <c r="K150" s="3">
-        <v>0.105909235044</v>
+        <v>0.104732160398</v>
       </c>
       <c r="L150" s="4">
         <f t="shared" si="20"/>
@@ -17103,7 +17103,7 @@
       </c>
       <c r="Q150" s="4"/>
       <c r="R150">
-        <f>0.6*K151/B150</f>
+        <f>0.6*K150/B150</f>
         <v>1.7503282302804318E-2</v>
       </c>
     </row>
@@ -17143,7 +17143,7 @@
         <v>1.47172662949E-2</v>
       </c>
       <c r="K151" s="3">
-        <v>0.104732160398</v>
+        <v>0.103616637213</v>
       </c>
       <c r="L151" s="4">
         <f t="shared" si="20"/>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="Q151" s="4"/>
       <c r="R151">
-        <f>0.6*K152/B151</f>
+        <f>0.6*K151/B151</f>
         <v>1.7433684887695568E-2</v>
       </c>
     </row>
@@ -17207,7 +17207,7 @@
         <v>1.53451175064E-2</v>
       </c>
       <c r="K152" s="3">
-        <v>0.103616637213</v>
+        <v>0.10249616046899999</v>
       </c>
       <c r="L152" s="4">
         <f t="shared" si="20"/>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="Q152" s="4"/>
       <c r="R152">
-        <f>0.6*K153/B152</f>
+        <f>0.6*K152/B152</f>
         <v>1.7361046797739973E-2</v>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
         <v>1.5992064052300001E-2</v>
       </c>
       <c r="K153" s="3">
-        <v>0.10249616046899999</v>
+        <v>0.10142878261</v>
       </c>
       <c r="L153" s="4">
         <f t="shared" si="20"/>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="Q153" s="4"/>
       <c r="R153">
-        <f>0.6*K154/B153</f>
+        <f>0.6*K153/B153</f>
         <v>1.7295215466887871E-2</v>
       </c>
     </row>
@@ -17335,7 +17335,7 @@
         <v>1.6658378763000001E-2</v>
       </c>
       <c r="K154" s="3">
-        <v>0.10142878261</v>
+        <v>0.100389183787</v>
       </c>
       <c r="L154" s="4">
         <f t="shared" si="20"/>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="Q154" s="4"/>
       <c r="R154">
-        <f>0.6*K155/B154</f>
+        <f>0.6*K154/B154</f>
         <v>1.7232056928164725E-2</v>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
         <v>1.7344333437500001E-2</v>
       </c>
       <c r="K155" s="3">
-        <v>0.100389183787</v>
+        <v>9.9382429245699996E-2</v>
       </c>
       <c r="L155" s="4">
         <f t="shared" si="20"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="Q155" s="4"/>
       <c r="R155">
-        <f>0.6*K156/B155</f>
+        <f>0.6*K155/B155</f>
         <v>1.717254516250892E-2</v>
       </c>
     </row>
@@ -17463,7 +17463,7 @@
         <v>1.8050196485799998E-2</v>
       </c>
       <c r="K156" s="3">
-        <v>9.9382429245699996E-2</v>
+        <v>9.8408405460900003E-2</v>
       </c>
       <c r="L156" s="4">
         <f t="shared" si="20"/>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="Q156" s="4"/>
       <c r="R156">
-        <f>0.6*K157/B156</f>
+        <f>0.6*K156/B156</f>
         <v>1.7116783365582248E-2</v>
       </c>
     </row>
@@ -17527,7 +17527,7 @@
         <v>1.87762336328E-2</v>
       </c>
       <c r="K157" s="3">
-        <v>9.8408405460900003E-2</v>
+        <v>9.7465761072900003E-2</v>
       </c>
       <c r="L157" s="4">
         <f t="shared" si="20"/>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="Q157" s="4"/>
       <c r="R157">
-        <f>0.6*K158/B157</f>
+        <f>0.6*K157/B157</f>
         <v>1.7064658616853277E-2</v>
       </c>
     </row>
@@ -17591,7 +17591,7 @@
         <v>1.9522707856799999E-2</v>
       </c>
       <c r="K158" s="3">
-        <v>9.7465761072900003E-2</v>
+        <v>9.6531555834399999E-2</v>
       </c>
       <c r="L158" s="4">
         <f t="shared" si="20"/>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="Q158" s="4"/>
       <c r="R158">
-        <f>0.6*K159/B158</f>
+        <f>0.6*K158/B158</f>
         <v>1.7012246799389567E-2</v>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
         <v>2.0289876282100001E-2</v>
       </c>
       <c r="K159" s="3">
-        <v>9.6531555834399999E-2</v>
+        <v>9.5706894363400005E-2</v>
       </c>
       <c r="L159" s="4">
         <f t="shared" si="20"/>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="Q159" s="4"/>
       <c r="R159">
-        <f>0.6*K160/B159</f>
+        <f>0.6*K159/B159</f>
         <v>1.6977497001857501E-2</v>
       </c>
     </row>
@@ -17719,7 +17719,7 @@
         <v>2.1078000944199999E-2</v>
       </c>
       <c r="K160" s="3">
-        <v>9.5706894363400005E-2</v>
+        <v>9.4840281031999998E-2</v>
       </c>
       <c r="L160" s="4">
         <f t="shared" si="20"/>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="Q160" s="4"/>
       <c r="R160">
-        <f>0.6*K161/B160</f>
+        <f>0.6*K160/B160</f>
         <v>1.6933842838480397E-2</v>
       </c>
     </row>
@@ -17783,7 +17783,7 @@
         <v>2.1887342071200001E-2</v>
       </c>
       <c r="K161" s="3">
-        <v>9.4840281031999998E-2</v>
+        <v>9.40267110607E-2</v>
       </c>
       <c r="L161" s="4">
         <f t="shared" si="20"/>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="Q161" s="4"/>
       <c r="R161">
-        <f>0.6*K162/B161</f>
+        <f>0.6*K161/B161</f>
         <v>1.6898139286721087E-2</v>
       </c>
     </row>
@@ -17847,7 +17847,7 @@
         <v>2.2718150725999999E-2</v>
       </c>
       <c r="K162" s="3">
-        <v>9.40267110607E-2</v>
+        <v>9.3245991432700001E-2</v>
       </c>
       <c r="L162" s="4">
         <f t="shared" si="20"/>
@@ -17871,7 +17871,7 @@
       </c>
       <c r="Q162" s="4"/>
       <c r="R162">
-        <f>0.6*K163/B162</f>
+        <f>0.6*K162/B162</f>
         <v>1.6866958770860519E-2</v>
       </c>
     </row>
@@ -17911,7 +17911,7 @@
         <v>2.3570679251299999E-2</v>
       </c>
       <c r="K163" s="3">
-        <v>9.3245991432700001E-2</v>
+        <v>9.2496026995700004E-2</v>
       </c>
       <c r="L163" s="4">
         <f t="shared" si="20"/>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="Q163" s="4"/>
       <c r="R163">
-        <f>0.6*K164/B163</f>
+        <f>0.6*K163/B163</f>
         <v>1.6840052647029306E-2</v>
       </c>
     </row>
@@ -17975,7 +17975,7 @@
         <v>2.44451781258E-2</v>
       </c>
       <c r="K164" s="3">
-        <v>9.2496026995700004E-2</v>
+        <v>9.1774651619199996E-2</v>
       </c>
       <c r="L164" s="4">
         <f t="shared" si="20"/>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="Q164" s="4"/>
       <c r="R164">
-        <f>0.6*K165/B164</f>
+        <f>0.6*K164/B164</f>
         <v>1.6817148585330406E-2</v>
       </c>
     </row>
@@ -18039,7 +18039,7 @@
         <v>2.53418962708E-2</v>
       </c>
       <c r="K165" s="3">
-        <v>9.1774651619199996E-2</v>
+        <v>9.10898900904E-2</v>
       </c>
       <c r="L165" s="4">
         <f t="shared" si="20"/>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="Q165" s="4"/>
       <c r="R165">
-        <f>0.6*K166/B165</f>
+        <f>0.6*K165/B165</f>
         <v>1.6799842579497633E-2</v>
       </c>
     </row>
@@ -18103,7 +18103,7 @@
         <v>2.6261082024600001E-2</v>
       </c>
       <c r="K166" s="3">
-        <v>9.10898900904E-2</v>
+        <v>9.0427293702999997E-2</v>
       </c>
       <c r="L166" s="4">
         <f t="shared" si="20"/>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="Q166" s="4"/>
       <c r="R166">
-        <f>0.6*K167/B166</f>
+        <f>0.6*K166/B166</f>
         <v>1.6785608470875742E-2</v>
       </c>
     </row>
@@ -18167,7 +18167,7 @@
         <v>2.72029824175E-2</v>
       </c>
       <c r="K167" s="3">
-        <v>9.0427293702999997E-2</v>
+        <v>8.9794252494799998E-2</v>
       </c>
       <c r="L167" s="4">
         <f t="shared" si="20"/>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="Q167" s="4"/>
       <c r="R167">
-        <f>0.6*K168/B167</f>
+        <f>0.6*K167/B167</f>
         <v>1.6775915646970431E-2</v>
       </c>
     </row>
@@ -18231,7 +18231,7 @@
         <v>2.8167842451699999E-2</v>
       </c>
       <c r="K168" s="3">
-        <v>8.9794252494799998E-2</v>
+        <v>8.9188286295500005E-2</v>
       </c>
       <c r="L168" s="4">
         <f t="shared" si="20"/>
@@ -18255,7 +18255,7 @@
       </c>
       <c r="Q168" s="4"/>
       <c r="R168">
-        <f>0.6*K169/B168</f>
+        <f>0.6*K168/B168</f>
         <v>1.6770423517467017E-2</v>
       </c>
     </row>
@@ -18295,7 +18295,7 @@
         <v>2.9155906156499999E-2</v>
       </c>
       <c r="K169" s="3">
-        <v>8.9188286295500005E-2</v>
+        <v>8.8606895478499995E-2</v>
       </c>
       <c r="L169" s="4">
         <f t="shared" si="20"/>
@@ -18319,7 +18319,7 @@
       </c>
       <c r="Q169" s="4"/>
       <c r="R169">
-        <f>0.6*K170/B169</f>
+        <f>0.6*K169/B169</f>
         <v>1.6768774678452135E-2</v>
       </c>
     </row>
@@ -18359,7 +18359,7 @@
         <v>3.01674161585E-2</v>
       </c>
       <c r="K170" s="3">
-        <v>8.8606895478499995E-2</v>
+        <v>8.8044011848600001E-2</v>
       </c>
       <c r="L170" s="4">
         <f t="shared" si="20"/>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="Q170" s="4"/>
       <c r="R170">
-        <f>0.6*K171/B170</f>
+        <f>0.6*K170/B170</f>
         <v>1.6769918577822927E-2</v>
       </c>
     </row>
@@ -18423,7 +18423,7 @@
         <v>3.1202612652899999E-2</v>
       </c>
       <c r="K171" s="3">
-        <v>8.8044011848600001E-2</v>
+        <v>8.7538250433499998E-2</v>
       </c>
       <c r="L171" s="4">
         <f t="shared" si="20"/>
@@ -18447,7 +18447,7 @@
       </c>
       <c r="Q171" s="4"/>
       <c r="R171">
-        <f>0.6*K172/B171</f>
+        <f>0.6*K171/B171</f>
         <v>1.6781334955584173E-2</v>
       </c>
     </row>
@@ -18487,7 +18487,7 @@
         <v>3.2261738999399998E-2</v>
       </c>
       <c r="K172" s="3">
-        <v>8.7538250433499998E-2</v>
+        <v>8.7023525890099998E-2</v>
       </c>
       <c r="L172" s="4">
         <f t="shared" si="20"/>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="Q172" s="4"/>
       <c r="R172">
-        <f>0.6*K173/B172</f>
+        <f>0.6*K172/B172</f>
         <v>1.6790543056203772E-2</v>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
         <v>3.3345036359799997E-2</v>
       </c>
       <c r="K173" s="3">
-        <v>8.7023525890099998E-2</v>
+        <v>8.6537120411999999E-2</v>
       </c>
       <c r="L173" s="4">
         <f t="shared" si="20"/>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="Q173" s="4"/>
       <c r="R173">
-        <f>0.6*K174/B173</f>
+        <f>0.6*K173/B173</f>
         <v>1.6804727393979903E-2</v>
       </c>
     </row>
@@ -18615,7 +18615,7 @@
         <v>3.4452743462600001E-2</v>
       </c>
       <c r="K174" s="3">
-        <v>8.6537120411999999E-2</v>
+        <v>8.6074114401400004E-2</v>
       </c>
       <c r="L174" s="4">
         <f t="shared" si="20"/>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="Q174" s="4"/>
       <c r="R174">
-        <f>0.6*K175/B174</f>
+        <f>0.6*K174/B174</f>
         <v>1.6823057673520804E-2</v>
       </c>
     </row>
@@ -18679,7 +18679,7 @@
         <v>3.5585097848100003E-2</v>
       </c>
       <c r="K175" s="3">
-        <v>8.6074114401400004E-2</v>
+        <v>8.5627821823899997E-2</v>
       </c>
       <c r="L175" s="4">
         <f t="shared" si="20"/>
@@ -18703,7 +18703,7 @@
       </c>
       <c r="Q175" s="4"/>
       <c r="R175">
-        <f>0.6*K176/B175</f>
+        <f>0.6*K175/B175</f>
         <v>1.6844327388658171E-2</v>
       </c>
     </row>
@@ -18743,7 +18743,7 @@
         <v>3.6742335839299999E-2</v>
       </c>
       <c r="K176" s="3">
-        <v>8.5627821823899997E-2</v>
+        <v>8.5194200302700002E-2</v>
       </c>
       <c r="L176" s="4">
         <f t="shared" si="20"/>
@@ -18767,7 +18767,7 @@
       </c>
       <c r="Q176" s="4"/>
       <c r="R176">
-        <f>0.6*K177/B176</f>
+        <f>0.6*K176/B176</f>
         <v>1.686781285114046E-2</v>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
         <v>3.7924691048000003E-2</v>
       </c>
       <c r="K177" s="3">
-        <v>8.5194200302700002E-2</v>
+        <v>8.4761559641199996E-2</v>
       </c>
       <c r="L177" s="4">
         <f t="shared" si="20"/>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="Q177" s="4"/>
       <c r="R177">
-        <f>0.6*K178/B177</f>
+        <f>0.6*K177/B177</f>
         <v>1.6891241806545224E-2</v>
       </c>
     </row>
@@ -18871,7 +18871,7 @@
         <v>3.9132391926200001E-2</v>
       </c>
       <c r="K178" s="3">
-        <v>8.4761559641199996E-2</v>
+        <v>8.4279569726700004E-2</v>
       </c>
       <c r="L178" s="4">
         <f t="shared" si="20"/>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="Q178" s="4"/>
       <c r="R178">
-        <f>0.6*K179/B178</f>
+        <f>0.6*K178/B178</f>
         <v>1.690451703194696E-2</v>
       </c>
     </row>
@@ -18935,7 +18935,7 @@
         <v>4.0365651096699998E-2</v>
       </c>
       <c r="K179" s="3">
-        <v>8.4279569726700004E-2</v>
+        <v>8.4141321696799998E-2</v>
       </c>
       <c r="L179" s="4">
         <f t="shared" si="20"/>
@@ -18959,7 +18959,7 @@
       </c>
       <c r="Q179" s="4"/>
       <c r="R179">
-        <f>0.6*K180/B179</f>
+        <f>0.6*K179/B179</f>
         <v>1.6986731681160491E-2</v>
       </c>
     </row>
@@ -18999,7 +18999,7 @@
         <v>4.1624726208300003E-2</v>
       </c>
       <c r="K180" s="3">
-        <v>8.4141321696799998E-2</v>
+        <v>8.3716100949999997E-2</v>
       </c>
       <c r="L180" s="4">
         <f t="shared" si="20"/>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="Q180" s="4"/>
       <c r="R180">
-        <f>0.6*K181/B180</f>
+        <f>0.6*K180/B180</f>
         <v>1.7011526646213221E-2</v>
       </c>
     </row>
@@ -19063,7 +19063,7 @@
         <v>4.29098783895E-2</v>
       </c>
       <c r="K181" s="3">
-        <v>8.3716100949999997E-2</v>
+        <v>8.3344816592400006E-2</v>
       </c>
       <c r="L181" s="4">
         <f t="shared" si="20"/>
@@ -19087,7 +19087,7 @@
       </c>
       <c r="Q181" s="4"/>
       <c r="R181">
-        <f>0.6*K182/B181</f>
+        <f>0.6*K181/B181</f>
         <v>1.7047113060285949E-2</v>
       </c>
     </row>
@@ -19127,7 +19127,7 @@
         <v>4.4221321159400001E-2</v>
       </c>
       <c r="K182" s="3">
-        <v>8.3344816592400006E-2</v>
+        <v>8.3004390474999995E-2</v>
       </c>
       <c r="L182" s="4">
         <f t="shared" si="20"/>
@@ -19151,7 +19151,7 @@
       </c>
       <c r="Q182" s="4"/>
       <c r="R182">
-        <f>0.6*K183/B182</f>
+        <f>0.6*K182/B182</f>
         <v>1.7089022310520178E-2</v>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
         <v>4.5559276997599998E-2</v>
       </c>
       <c r="K183" s="3">
-        <v>8.3004390474999995E-2</v>
+        <v>8.2688623847900003E-2</v>
       </c>
       <c r="L183" s="4">
         <f t="shared" si="20"/>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="Q183" s="4"/>
       <c r="R183">
-        <f>0.6*K184/B183</f>
+        <f>0.6*K183/B183</f>
         <v>1.7136133484070133E-2</v>
       </c>
     </row>
@@ -19255,7 +19255,7 @@
         <v>4.6923972581300002E-2</v>
       </c>
       <c r="K184" s="3">
-        <v>8.2688623847900003E-2</v>
+        <v>8.2400617637000004E-2</v>
       </c>
       <c r="L184" s="4">
         <f t="shared" si="20"/>
@@ -19279,7 +19279,7 @@
       </c>
       <c r="Q184" s="4"/>
       <c r="R184">
-        <f>0.6*K185/B184</f>
+        <f>0.6*K184/B184</f>
         <v>1.7189226921737934E-2</v>
       </c>
     </row>
@@ -19319,7 +19319,7 @@
         <v>4.83156386816E-2</v>
       </c>
       <c r="K185" s="3">
-        <v>8.2400617637000004E-2</v>
+        <v>8.2149583467400006E-2</v>
       </c>
       <c r="L185" s="4">
         <f t="shared" si="20"/>
@@ -19343,7 +19343,7 @@
       </c>
       <c r="Q185" s="4"/>
       <c r="R185">
-        <f>0.6*K186/B185</f>
+        <f>0.6*K185/B185</f>
         <v>1.7250390715569164E-2</v>
       </c>
     </row>
@@ -19383,7 +19383,7 @@
         <v>4.9734512939399997E-2</v>
       </c>
       <c r="K186" s="3">
-        <v>8.2149583467400006E-2</v>
+        <v>8.1960137606000003E-2</v>
       </c>
       <c r="L186" s="4">
         <f t="shared" si="20"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="Q186" s="4"/>
       <c r="R186">
-        <f>0.6*K187/B186</f>
+        <f>0.6*K186/B186</f>
         <v>1.7325037355142927E-2</v>
       </c>
     </row>
@@ -19447,7 +19447,7 @@
         <v>5.1180846838399997E-2</v>
       </c>
       <c r="K187" s="3">
-        <v>8.1960137606000003E-2</v>
+        <v>8.1868704377100004E-2</v>
       </c>
       <c r="L187" s="4">
         <f t="shared" si="20"/>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="Q187" s="4"/>
       <c r="R187">
-        <f>0.6*K188/B187</f>
+        <f>0.6*K187/B187</f>
         <v>1.7421271285746196E-2</v>
       </c>
     </row>
@@ -19511,7 +19511,7 @@
         <v>5.2654917414800002E-2</v>
       </c>
       <c r="K188" s="3">
-        <v>8.1868704377100004E-2</v>
+        <v>8.1018479488400005E-2</v>
       </c>
       <c r="L188" s="4">
         <f t="shared" si="20"/>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="Q188" s="4"/>
       <c r="R188">
-        <f>0.6*K189/B188</f>
+        <f>0.6*K188/B188</f>
         <v>1.7356116196358171E-2</v>
       </c>
     </row>
@@ -19575,7 +19575,7 @@
         <v>5.4156870842799999E-2</v>
       </c>
       <c r="K189" s="3">
-        <v>8.1018479488400005E-2</v>
+        <v>8.0883113317199995E-2</v>
       </c>
       <c r="L189" s="4">
         <f t="shared" si="20"/>
@@ -19599,7 +19599,7 @@
       </c>
       <c r="Q189" s="4"/>
       <c r="R189">
-        <f>0.6*K190/B189</f>
+        <f>0.6*K189/B189</f>
         <v>1.7443030815839158E-2</v>
       </c>
     </row>
@@ -19639,7 +19639,7 @@
         <v>5.56868390995E-2</v>
       </c>
       <c r="K190" s="3">
-        <v>8.0883113317199995E-2</v>
+        <v>8.0827711652000006E-2</v>
       </c>
       <c r="L190" s="4">
         <f t="shared" si="20"/>
@@ -19663,7 +19663,7 @@
       </c>
       <c r="Q190" s="4"/>
       <c r="R190">
-        <f>0.6*K191/B190</f>
+        <f>0.6*K190/B190</f>
         <v>1.7548279738740732E-2</v>
       </c>
     </row>
@@ -19703,7 +19703,7 @@
         <v>5.7245104591600003E-2</v>
       </c>
       <c r="K191" s="3">
-        <v>8.0827711652000006E-2</v>
+        <v>8.0665896084999994E-2</v>
       </c>
       <c r="L191" s="4">
         <f t="shared" si="20"/>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="Q191" s="4"/>
       <c r="R191">
-        <f>0.6*K192/B191</f>
+        <f>0.6*K191/B191</f>
         <v>1.763161215052296E-2</v>
       </c>
     </row>
@@ -19767,7 +19767,7 @@
         <v>5.88319415495E-2</v>
       </c>
       <c r="K192" s="3">
-        <v>8.0665896084999994E-2</v>
+        <v>8.0528259574700001E-2</v>
       </c>
       <c r="L192" s="4">
         <f t="shared" si="20"/>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="Q192" s="4"/>
       <c r="R192">
-        <f>0.6*K193/B192</f>
+        <f>0.6*K192/B192</f>
         <v>1.7721158942072511E-2</v>
       </c>
     </row>
@@ -19831,7 +19831,7 @@
         <v>6.0447605060199999E-2</v>
       </c>
       <c r="K193" s="3">
-        <v>8.0528259574700001E-2</v>
+        <v>8.0408741523399996E-2</v>
       </c>
       <c r="L193" s="4">
         <f t="shared" si="20"/>
@@ -19855,7 +19855,7 @@
       </c>
       <c r="Q193" s="4"/>
       <c r="R193">
-        <f>0.6*K194/B193</f>
+        <f>0.6*K193/B193</f>
         <v>1.7815737732429126E-2</v>
       </c>
     </row>
@@ -19895,7 +19895,7 @@
         <v>6.2092355938300002E-2</v>
       </c>
       <c r="K194" s="3">
-        <v>8.0408741523399996E-2</v>
+        <v>8.0349159129399994E-2</v>
       </c>
       <c r="L194" s="4">
         <f t="shared" si="20"/>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="Q194" s="4"/>
       <c r="R194">
-        <f>0.6*K195/B194</f>
+        <f>0.6*K194/B194</f>
         <v>1.7924805594626992E-2</v>
       </c>
     </row>
@@ -19959,7 +19959,7 @@
         <v>6.3766468498600001E-2</v>
       </c>
       <c r="K195" s="3">
-        <v>8.0349159129399994E-2</v>
+        <v>8.0343322646399998E-2</v>
       </c>
       <c r="L195" s="4">
         <f t="shared" ref="L195:L258" si="29">-(C195*300*0.00981)/B195</f>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="Q195" s="4"/>
       <c r="R195">
-        <f>0.6*K196/B195</f>
+        <f>0.6*K195/B195</f>
         <v>1.8047362409077432E-2</v>
       </c>
     </row>
@@ -20023,7 +20023,7 @@
         <v>6.5470238519200002E-2</v>
       </c>
       <c r="K196" s="3">
-        <v>8.0343322646399998E-2</v>
+        <v>8.0395395245199994E-2</v>
       </c>
       <c r="L196" s="4">
         <f t="shared" si="29"/>
@@ -20047,7 +20047,7 @@
       </c>
       <c r="Q196" s="4"/>
       <c r="R196">
-        <f>0.6*K197/B196</f>
+        <f>0.6*K196/B196</f>
         <v>1.8184714174666116E-2</v>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
         <v>6.7203983680799995E-2</v>
       </c>
       <c r="K197" s="3">
-        <v>8.0395395245199994E-2</v>
+        <v>8.0540416293000003E-2</v>
       </c>
       <c r="L197" s="4">
         <f t="shared" si="29"/>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="Q197" s="4"/>
       <c r="R197">
-        <f>0.6*K198/B197</f>
+        <f>0.6*K197/B197</f>
         <v>1.834524544070168E-2</v>
       </c>
     </row>
@@ -20151,7 +20151,7 @@
         <v>6.8968052688999998E-2</v>
       </c>
       <c r="K198" s="3">
-        <v>8.0540416293000003E-2</v>
+        <v>8.0557677291899998E-2</v>
       </c>
       <c r="L198" s="4">
         <f t="shared" si="29"/>
@@ -20175,7 +20175,7 @@
       </c>
       <c r="Q198" s="4"/>
       <c r="R198">
-        <f>0.6*K199/B198</f>
+        <f>0.6*K198/B198</f>
         <v>1.847897277120792E-2</v>
       </c>
     </row>
@@ -20215,7 +20215,7 @@
         <v>7.0762786834999994E-2</v>
       </c>
       <c r="K199" s="3">
-        <v>8.0557677291899998E-2</v>
+        <v>8.0935733074899999E-2</v>
       </c>
       <c r="L199" s="4">
         <f t="shared" si="29"/>
@@ -20239,7 +20239,7 @@
       </c>
       <c r="Q199" s="4"/>
       <c r="R199">
-        <f>0.6*K200/B199</f>
+        <f>0.6*K199/B199</f>
         <v>1.8697985639676038E-2</v>
       </c>
     </row>
@@ -20279,7 +20279,7 @@
         <v>7.25885777319E-2</v>
       </c>
       <c r="K200" s="3">
-        <v>8.0935733074899999E-2</v>
+        <v>8.1322135613299998E-2</v>
       </c>
       <c r="L200" s="4">
         <f t="shared" si="29"/>
@@ -20303,7 +20303,7 @@
       </c>
       <c r="Q200" s="4"/>
       <c r="R200">
-        <f>0.6*K201/B200</f>
+        <f>0.6*K200/B200</f>
         <v>1.8922721545742295E-2</v>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
         <v>7.4445897878299999E-2</v>
       </c>
       <c r="K201" s="3">
-        <v>8.1322135613299998E-2</v>
+        <v>8.1861685111999996E-2</v>
       </c>
       <c r="L201" s="4">
         <f t="shared" si="29"/>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="Q201" s="4"/>
       <c r="R201">
-        <f>0.6*K202/B201</f>
+        <f>0.6*K201/B201</f>
         <v>1.918728164092412E-2</v>
       </c>
     </row>
@@ -20407,7 +20407,7 @@
         <v>7.6335258284099997E-2</v>
       </c>
       <c r="K202" s="3">
-        <v>8.1861685111999996E-2</v>
+        <v>8.25189622963E-2</v>
       </c>
       <c r="L202" s="4">
         <f t="shared" si="29"/>
@@ -20431,7 +20431,7 @@
       </c>
       <c r="Q202" s="4"/>
       <c r="R202">
-        <f>0.6*K203/B202</f>
+        <f>0.6*K202/B202</f>
         <v>1.9484478632584283E-2</v>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
         <v>7.8257233732699993E-2</v>
       </c>
       <c r="K203" s="3">
-        <v>8.25189622963E-2</v>
+        <v>8.3332246279999994E-2</v>
       </c>
       <c r="L203" s="4">
         <f t="shared" si="29"/>
@@ -20495,7 +20495,7 @@
       </c>
       <c r="Q203" s="4"/>
       <c r="R203">
-        <f>0.6*K204/B203</f>
+        <f>0.6*K203/B203</f>
         <v>1.9824405314328331E-2</v>
       </c>
     </row>
@@ -20535,7 +20535,7 @@
         <v>8.0212465548100007E-2</v>
       </c>
       <c r="K204" s="3">
-        <v>8.3332246279999994E-2</v>
+        <v>8.4325520993599995E-2</v>
       </c>
       <c r="L204" s="4">
         <f t="shared" si="29"/>
@@ -20559,7 +20559,7 @@
       </c>
       <c r="Q204" s="4"/>
       <c r="R204">
-        <f>0.6*K205/B204</f>
+        <f>0.6*K204/B204</f>
         <v>2.0214132727145052E-2</v>
       </c>
     </row>
@@ -20599,7 +20599,7 @@
         <v>8.2201677717299998E-2</v>
       </c>
       <c r="K205" s="3">
-        <v>8.4325520993599995E-2</v>
+        <v>8.5309232103300006E-2</v>
       </c>
       <c r="L205" s="4">
         <f t="shared" si="29"/>
@@ -20623,7 +20623,7 @@
       </c>
       <c r="Q205" s="4"/>
       <c r="R205">
-        <f>0.6*K206/B205</f>
+        <f>0.6*K205/B205</f>
         <v>2.0609450746185441E-2</v>
       </c>
     </row>
@@ -20663,7 +20663,7 @@
         <v>8.4225642180199997E-2</v>
       </c>
       <c r="K206" s="3">
-        <v>8.5309232103300006E-2</v>
+        <v>8.6585287695100002E-2</v>
       </c>
       <c r="L206" s="4">
         <f t="shared" si="29"/>
@@ -20687,7 +20687,7 @@
       </c>
       <c r="Q206" s="4"/>
       <c r="R206">
-        <f>0.6*K207/B206</f>
+        <f>0.6*K206/B206</f>
         <v>2.1084098969322805E-2</v>
       </c>
     </row>
@@ -20727,7 +20727,7 @@
         <v>8.6285206335999995E-2</v>
       </c>
       <c r="K207" s="3">
-        <v>8.6585287695100002E-2</v>
+        <v>8.8004962838899997E-2</v>
       </c>
       <c r="L207" s="4">
         <f t="shared" si="29"/>
@@ -20751,7 +20751,7 @@
       </c>
       <c r="Q207" s="4"/>
       <c r="R207">
-        <f>0.6*K208/B207</f>
+        <f>0.6*K207/B207</f>
         <v>2.1604201670111005E-2</v>
       </c>
     </row>
@@ -20791,7 +20791,7 @@
         <v>8.8381330674999994E-2</v>
       </c>
       <c r="K208" s="3">
-        <v>8.8004962838899997E-2</v>
+        <v>8.9617721969999994E-2</v>
       </c>
       <c r="L208" s="4">
         <f t="shared" si="29"/>
@@ -20815,7 +20815,7 @@
       </c>
       <c r="Q208" s="4"/>
       <c r="R208">
-        <f>0.6*K209/B208</f>
+        <f>0.6*K208/B208</f>
         <v>2.2183612570304389E-2</v>
       </c>
     </row>
@@ -20855,7 +20855,7 @@
         <v>9.0515069771999995E-2</v>
       </c>
       <c r="K209" s="3">
-        <v>8.9617721969999994E-2</v>
+        <v>9.1333822738900006E-2</v>
       </c>
       <c r="L209" s="4">
         <f t="shared" si="29"/>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="Q209" s="4"/>
       <c r="R209">
-        <f>0.6*K210/B209</f>
+        <f>0.6*K209/B209</f>
         <v>2.2802080748431479E-2</v>
       </c>
     </row>
@@ -20919,7 +20919,7 @@
         <v>9.2687566242100006E-2</v>
       </c>
       <c r="K210" s="3">
-        <v>9.1333822738900006E-2</v>
+        <v>9.2992792808000005E-2</v>
       </c>
       <c r="L210" s="4">
         <f t="shared" si="29"/>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="Q210" s="4"/>
       <c r="R210">
-        <f>0.6*K211/B210</f>
+        <f>0.6*K210/B210</f>
         <v>2.3420725302014399E-2</v>
       </c>
     </row>
@@ -20983,7 +20983,7 @@
         <v>9.4899994935899998E-2</v>
       </c>
       <c r="K211" s="3">
-        <v>9.2992792808000005E-2</v>
+        <v>9.4561375959399993E-2</v>
       </c>
       <c r="L211" s="4">
         <f t="shared" si="29"/>
@@ -21007,7 +21007,7 @@
       </c>
       <c r="Q211" s="4"/>
       <c r="R211">
-        <f>0.6*K212/B211</f>
+        <f>0.6*K211/B211</f>
         <v>2.4031275662152386E-2</v>
       </c>
     </row>
@@ -21047,7 +21047,7 @@
         <v>9.7153518258599997E-2</v>
       </c>
       <c r="K212" s="3">
-        <v>9.4561375959399993E-2</v>
+        <v>9.5745008767699993E-2</v>
       </c>
       <c r="L212" s="4">
         <f t="shared" si="29"/>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="Q212" s="4"/>
       <c r="R212">
-        <f>0.6*K213/B212</f>
+        <f>0.6*K212/B212</f>
         <v>2.4558036022036628E-2</v>
       </c>
     </row>
@@ -21111,7 +21111,7 @@
         <v>9.9449207006800003E-2</v>
       </c>
       <c r="K213" s="3">
-        <v>9.5745008767699993E-2</v>
+        <v>9.6365774663800002E-2</v>
       </c>
       <c r="L213" s="4">
         <f t="shared" si="29"/>
@@ -21135,7 +21135,7 @@
       </c>
       <c r="Q213" s="4"/>
       <c r="R213">
-        <f>0.6*K214/B213</f>
+        <f>0.6*K213/B213</f>
         <v>2.4951873790981662E-2</v>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
         <v>0.101787922351</v>
       </c>
       <c r="K214" s="3">
-        <v>9.6365774663800002E-2</v>
+        <v>9.5866770295900003E-2</v>
       </c>
       <c r="L214" s="4">
         <f t="shared" si="29"/>
@@ -21199,7 +21199,7 @@
       </c>
       <c r="Q214" s="4"/>
       <c r="R214">
-        <f>0.6*K215/B214</f>
+        <f>0.6*K214/B214</f>
         <v>2.5062097678851817E-2</v>
       </c>
     </row>
@@ -21239,7 +21239,7 @@
         <v>0.104170127492</v>
       </c>
       <c r="K215" s="3">
-        <v>9.5866770295900003E-2</v>
+        <v>9.3655276125300002E-2</v>
       </c>
       <c r="L215" s="4">
         <f t="shared" si="29"/>
@@ -21263,7 +21263,7 @@
       </c>
       <c r="Q215" s="4"/>
       <c r="R215">
-        <f>0.6*K216/B215</f>
+        <f>0.6*K215/B215</f>
         <v>2.4721171619751171E-2</v>
       </c>
     </row>
@@ -21303,7 +21303,7 @@
         <v>0.106595491136</v>
       </c>
       <c r="K216" s="3">
-        <v>9.3655276125300002E-2</v>
+        <v>8.9123450334699997E-2</v>
       </c>
       <c r="L216" s="4">
         <f t="shared" si="29"/>
@@ -21327,7 +21327,7 @@
       </c>
       <c r="Q216" s="4"/>
       <c r="R216">
-        <f>0.6*K217/B216</f>
+        <f>0.6*K216/B216</f>
         <v>2.3749749673827716E-2</v>
       </c>
     </row>
@@ -21367,7 +21367,7 @@
         <v>0.10906284604499999</v>
       </c>
       <c r="K217" s="3">
-        <v>8.9123450334699997E-2</v>
+        <v>8.2014749189700004E-2</v>
       </c>
       <c r="L217" s="4">
         <f t="shared" si="29"/>
@@ -21391,7 +21391,7 @@
       </c>
       <c r="Q217" s="4"/>
       <c r="R217">
-        <f>0.6*K218/B217</f>
+        <f>0.6*K217/B217</f>
         <v>2.2055972316379988E-2</v>
       </c>
     </row>
@@ -21431,7 +21431,7 @@
         <v>0.111569653825</v>
       </c>
       <c r="K218" s="3">
-        <v>8.2014749189700004E-2</v>
+        <v>7.2643742916600001E-2</v>
       </c>
       <c r="L218" s="4">
         <f t="shared" si="29"/>
@@ -21455,7 +21455,7 @@
       </c>
       <c r="Q218" s="4"/>
       <c r="R218">
-        <f>0.6*K219/B218</f>
+        <f>0.6*K218/B218</f>
         <v>1.9702236443080813E-2</v>
       </c>
     </row>
@@ -21495,7 +21495,7 @@
         <v>0.114112074469</v>
       </c>
       <c r="K219" s="3">
-        <v>7.2643742916600001E-2</v>
+        <v>6.2048314394799998E-2</v>
       </c>
       <c r="L219" s="4">
         <f t="shared" si="29"/>
@@ -21519,7 +21519,7 @@
       </c>
       <c r="Q219" s="4"/>
       <c r="R219">
-        <f>0.6*K220/B219</f>
+        <f>0.6*K219/B219</f>
         <v>1.6956485105353875E-2</v>
       </c>
     </row>
@@ -21559,7 +21559,7 @@
         <v>0.116685280201</v>
       </c>
       <c r="K220" s="3">
-        <v>6.2048314394799998E-2</v>
+        <v>5.1533672465399999E-2</v>
       </c>
       <c r="L220" s="4">
         <f t="shared" si="29"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="Q220" s="4"/>
       <c r="R220">
-        <f>0.6*K221/B220</f>
+        <f>0.6*K220/B220</f>
         <v>1.4175085101900629E-2</v>
       </c>
     </row>
@@ -21623,7 +21623,7 @@
         <v>0.119284054766</v>
       </c>
       <c r="K221" s="3">
-        <v>5.1533672465399999E-2</v>
+        <v>4.2125989440399997E-2</v>
       </c>
       <c r="L221" s="4">
         <f t="shared" si="29"/>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="Q221" s="4"/>
       <c r="R221">
-        <f>0.6*K222/B221</f>
+        <f>0.6*K221/B221</f>
         <v>1.1650596632672658E-2</v>
       </c>
     </row>
@@ -21687,7 +21687,7 @@
         <v>0.121903408703</v>
       </c>
       <c r="K222" s="3">
-        <v>4.2125989440399997E-2</v>
+        <v>3.4263463505099997E-2</v>
       </c>
       <c r="L222" s="4">
         <f t="shared" si="29"/>
@@ -21711,7 +21711,7 @@
       </c>
       <c r="Q222" s="4"/>
       <c r="R222">
-        <f>0.6*K223/B222</f>
+        <f>0.6*K222/B222</f>
         <v>9.5185527744017263E-3</v>
       </c>
     </row>
@@ -21751,7 +21751,7 @@
         <v>0.124538977087</v>
       </c>
       <c r="K223" s="3">
-        <v>3.4263463505099997E-2</v>
+        <v>2.7985046078100002E-2</v>
       </c>
       <c r="L223" s="4">
         <f t="shared" si="29"/>
@@ -21775,7 +21775,7 @@
       </c>
       <c r="Q223" s="4"/>
       <c r="R223">
-        <f>0.6*K224/B223</f>
+        <f>0.6*K223/B223</f>
         <v>7.8028154422214472E-3</v>
       </c>
     </row>
@@ -21815,7 +21815,7 @@
         <v>0.12718716572899999</v>
       </c>
       <c r="K224" s="3">
-        <v>2.7985046078100002E-2</v>
+        <v>2.3079213594599999E-2</v>
       </c>
       <c r="L224" s="4">
         <f t="shared" si="29"/>
@@ -21839,7 +21839,7 @@
       </c>
       <c r="Q224" s="4"/>
       <c r="R224">
-        <f>0.6*K225/B224</f>
+        <f>0.6*K224/B224</f>
         <v>6.4542490355826284E-3</v>
       </c>
     </row>
@@ -21879,7 +21879,7 @@
         <v>0.12984513328399999</v>
       </c>
       <c r="K225" s="3">
-        <v>2.3079213594599999E-2</v>
+        <v>1.92723655794E-2</v>
       </c>
       <c r="L225" s="4">
         <f t="shared" si="29"/>
@@ -21903,7 +21903,7 @@
       </c>
       <c r="Q225" s="4"/>
       <c r="R225">
-        <f>0.6*K226/B225</f>
+        <f>0.6*K225/B225</f>
         <v>5.4029915193525152E-3</v>
       </c>
     </row>
@@ -21943,7 +21943,7 @@
         <v>0.13251067332899999</v>
       </c>
       <c r="K226" s="3">
-        <v>1.92723655794E-2</v>
+        <v>1.63117957553E-2</v>
       </c>
       <c r="L226" s="4">
         <f t="shared" si="29"/>
@@ -21967,7 +21967,7 @@
       </c>
       <c r="Q226" s="4"/>
       <c r="R226">
-        <f>0.6*K227/B226</f>
+        <f>0.6*K226/B226</f>
         <v>4.5824779301431992E-3</v>
       </c>
     </row>
@@ -22007,7 +22007,7 @@
         <v>0.13518208345999999</v>
       </c>
       <c r="K227" s="3">
-        <v>1.63117957553E-2</v>
+        <v>1.39923731506E-2</v>
       </c>
       <c r="L227" s="4">
         <f t="shared" si="29"/>
@@ -22031,7 +22031,7 @@
       </c>
       <c r="Q227" s="4"/>
       <c r="R227">
-        <f>0.6*K228/B227</f>
+        <f>0.6*K227/B227</f>
         <v>3.9377907530437802E-3</v>
       </c>
     </row>
@@ -22071,7 +22071,7 @@
         <v>0.13785804841999999</v>
       </c>
       <c r="K228" s="3">
-        <v>1.39923731506E-2</v>
+        <v>1.21567791781E-2</v>
       </c>
       <c r="L228" s="4">
         <f t="shared" si="29"/>
@@ -22095,7 +22095,7 @@
       </c>
       <c r="Q228" s="4"/>
       <c r="R228">
-        <f>0.6*K229/B228</f>
+        <f>0.6*K228/B228</f>
         <v>3.4263763131924005E-3</v>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
         <v>0.140537547023</v>
       </c>
       <c r="K229" s="3">
-        <v>1.21567791781E-2</v>
+        <v>1.0687896927299999E-2</v>
       </c>
       <c r="L229" s="4">
         <f t="shared" si="29"/>
@@ -22159,7 +22159,7 @@
       </c>
       <c r="Q229" s="4"/>
       <c r="R229">
-        <f>0.6*K230/B229</f>
+        <f>0.6*K229/B229</f>
         <v>3.0163303501978943E-3</v>
       </c>
     </row>
@@ -22199,7 +22199,7 @@
         <v>0.14321977887699999</v>
       </c>
       <c r="K230" s="3">
-        <v>1.0687896927299999E-2</v>
+        <v>9.4991027908899999E-3</v>
       </c>
       <c r="L230" s="4">
         <f t="shared" si="29"/>
@@ -22223,7 +22223,7 @@
       </c>
       <c r="Q230" s="4"/>
       <c r="R230">
-        <f>0.6*K231/B230</f>
+        <f>0.6*K230/B230</f>
         <v>2.683929372855093E-3</v>
       </c>
     </row>
@@ -22263,7 +22263,7 @@
         <v>0.14590411133600001</v>
       </c>
       <c r="K231" s="3">
-        <v>9.4991027908899999E-3</v>
+        <v>8.5263782803400006E-3</v>
       </c>
       <c r="L231" s="4">
         <f t="shared" si="29"/>
@@ -22287,7 +22287,7 @@
       </c>
       <c r="Q231" s="4"/>
       <c r="R231">
-        <f>0.6*K232/B231</f>
+        <f>0.6*K231/B231</f>
         <v>2.4115685368682376E-3</v>
       </c>
     </row>
@@ -22327,7 +22327,7 @@
         <v>0.148590040294</v>
       </c>
       <c r="K232" s="3">
-        <v>8.5263782803400006E-3</v>
+        <v>7.7221618322599996E-3</v>
       </c>
       <c r="L232" s="4">
         <f t="shared" si="29"/>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="Q232" s="4"/>
       <c r="R232">
-        <f>0.6*K233/B232</f>
+        <f>0.6*K232/B232</f>
         <v>2.1861255252520898E-3</v>
       </c>
     </row>
@@ -22391,7 +22391,7 @@
         <v>0.15127716113600001</v>
       </c>
       <c r="K233" s="3">
-        <v>7.7221618322599996E-3</v>
+        <v>7.0508313646099998E-3</v>
       </c>
       <c r="L233" s="4">
         <f t="shared" si="29"/>
@@ -22415,7 +22415,7 @@
       </c>
       <c r="Q233" s="4"/>
       <c r="R233">
-        <f>0.6*K234/B233</f>
+        <f>0.6*K233/B233</f>
         <v>1.9977456230783823E-3</v>
       </c>
     </row>
@@ -22455,7 +22455,7 @@
         <v>0.153965147085</v>
       </c>
       <c r="K234" s="3">
-        <v>7.0508313646099998E-3</v>
+        <v>6.4854516560499996E-3</v>
       </c>
       <c r="L234" s="4">
         <f t="shared" si="29"/>
@@ -22479,7 +22479,7 @@
       </c>
       <c r="Q234" s="4"/>
       <c r="R234">
-        <f>0.6*K235/B234</f>
+        <f>0.6*K234/B234</f>
         <v>1.8389605009241079E-3</v>
       </c>
     </row>
@@ -22519,7 +22519,7 @@
         <v>0.15665373290699999</v>
       </c>
       <c r="K235" s="3">
-        <v>6.4854516560499996E-3</v>
+        <v>6.0054484300900001E-3</v>
       </c>
       <c r="L235" s="4">
         <f t="shared" si="29"/>
@@ -22543,7 +22543,7 @@
       </c>
       <c r="Q235" s="4"/>
       <c r="R235">
-        <f>0.6*K236/B235</f>
+        <f>0.6*K235/B235</f>
         <v>1.7040546118099224E-3</v>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
         <v>0.15934270253999999</v>
       </c>
       <c r="K236" s="3">
-        <v>6.0054484300900001E-3</v>
+        <v>5.5949442731199998E-3</v>
       </c>
       <c r="L236" s="4">
         <f t="shared" si="29"/>
@@ -22607,7 +22607,7 @@
       </c>
       <c r="Q236" s="4"/>
       <c r="R236">
-        <f>0.6*K237/B236</f>
+        <f>0.6*K236/B236</f>
         <v>1.5886099450235745E-3</v>
       </c>
     </row>
@@ -22647,7 +22647,7 @@
         <v>0.16203187959599999</v>
       </c>
       <c r="K237" s="3">
-        <v>5.5949442731199998E-3</v>
+        <v>5.2415624677299997E-3</v>
       </c>
       <c r="L237" s="4">
         <f t="shared" si="29"/>
@@ -22671,7 +22671,7 @@
       </c>
       <c r="Q237" s="4"/>
       <c r="R237">
-        <f>0.6*K238/B237</f>
+        <f>0.6*K237/B237</f>
         <v>1.4891776655415491E-3</v>
       </c>
     </row>
@@ -22711,7 +22711,7 @@
         <v>0.164721120006</v>
       </c>
       <c r="K238" s="3">
-        <v>5.2415624677299997E-3</v>
+        <v>4.9355610750999998E-3</v>
       </c>
       <c r="L238" s="4">
         <f t="shared" si="29"/>
@@ -22735,7 +22735,7 @@
       </c>
       <c r="Q238" s="4"/>
       <c r="R238">
-        <f>0.6*K239/B238</f>
+        <f>0.6*K238/B238</f>
         <v>1.4030397374605744E-3</v>
       </c>
     </row>
@@ -22775,7 +22775,7 @@
         <v>0.16741030626799999</v>
       </c>
       <c r="K239" s="3">
-        <v>4.9355610750999998E-3</v>
+        <v>4.6692008191600003E-3</v>
       </c>
       <c r="L239" s="4">
         <f t="shared" si="29"/>
@@ -22799,7 +22799,7 @@
       </c>
       <c r="Q239" s="4"/>
       <c r="R239">
-        <f>0.6*K240/B239</f>
+        <f>0.6*K239/B239</f>
         <v>1.3280344954247696E-3</v>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
         <v>0.17009934290199999</v>
       </c>
       <c r="K240" s="3">
-        <v>4.6692008191600003E-3</v>
+        <v>4.4362786393500001E-3</v>
       </c>
       <c r="L240" s="4">
         <f t="shared" si="29"/>
@@ -22863,7 +22863,7 @@
       </c>
       <c r="Q240" s="4"/>
       <c r="R240">
-        <f>0.6*K241/B240</f>
+        <f>0.6*K240/B240</f>
         <v>1.2624276623307289E-3</v>
       </c>
     </row>
@@ -22903,7 +22903,7 @@
         <v>0.172788152832</v>
       </c>
       <c r="K241" s="3">
-        <v>4.4362786393500001E-3</v>
+        <v>4.2317877004E-3</v>
       </c>
       <c r="L241" s="4">
         <f t="shared" si="29"/>
@@ -22927,7 +22927,7 @@
       </c>
       <c r="Q241" s="4"/>
       <c r="R241">
-        <f>0.6*K242/B241</f>
+        <f>0.6*K241/B241</f>
         <v>1.2048182209033686E-3</v>
       </c>
     </row>
@@ -22967,7 +22967,7 @@
         <v>0.17547667448500001</v>
       </c>
       <c r="K242" s="3">
-        <v>4.2317877004E-3</v>
+        <v>4.0516440397500002E-3</v>
       </c>
       <c r="L242" s="4">
         <f t="shared" si="29"/>
@@ -22991,7 +22991,7 @@
       </c>
       <c r="Q242" s="4"/>
       <c r="R242">
-        <f>0.6*K243/B242</f>
+        <f>0.6*K242/B242</f>
         <v>1.1540624828743824E-3</v>
       </c>
     </row>
@@ -23031,7 +23031,7 @@
         <v>0.17816485943900001</v>
       </c>
       <c r="K243" s="3">
-        <v>4.0516440397500002E-3</v>
+        <v>3.8925021959500001E-3</v>
       </c>
       <c r="L243" s="4">
         <f t="shared" si="29"/>
@@ -23055,7 +23055,7 @@
       </c>
       <c r="Q243" s="4"/>
       <c r="R243">
-        <f>0.6*K244/B243</f>
+        <f>0.6*K243/B243</f>
         <v>1.1092229518713244E-3</v>
       </c>
     </row>
@@ -23095,7 +23095,7 @@
         <v>0.18085267051000001</v>
       </c>
       <c r="K244" s="3">
-        <v>3.8925021959500001E-3</v>
+        <v>3.7516009714800001E-3</v>
       </c>
       <c r="L244" s="4">
         <f t="shared" si="29"/>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="Q244" s="4"/>
       <c r="R244">
-        <f>0.6*K245/B244</f>
+        <f>0.6*K244/B244</f>
         <v>1.069525399611859E-3</v>
       </c>
     </row>
@@ -23159,7 +23159,7 @@
         <v>0.18354008018199999</v>
       </c>
       <c r="K245" s="3">
-        <v>3.7516009714800001E-3</v>
+        <v>3.62664773641E-3</v>
       </c>
       <c r="L245" s="4">
         <f t="shared" si="29"/>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="Q245" s="4"/>
       <c r="R245">
-        <f>0.6*K246/B245</f>
+        <f>0.6*K245/B245</f>
         <v>1.0343266516303501E-3</v>
       </c>
     </row>
@@ -23223,7 +23223,7 @@
         <v>0.186227069312</v>
       </c>
       <c r="K246" s="3">
-        <v>3.62664773641E-3</v>
+        <v>3.5157285942200001E-3</v>
       </c>
       <c r="L246" s="4">
         <f t="shared" si="29"/>
@@ -23247,7 +23247,7 @@
       </c>
       <c r="Q246" s="4"/>
       <c r="R246">
-        <f>0.6*K247/B246</f>
+        <f>0.6*K246/B246</f>
         <v>1.003089549865857E-3</v>
       </c>
     </row>
@@ -23287,7 +23287,7 @@
         <v>0.188913626059</v>
       </c>
       <c r="K247" s="3">
-        <v>3.5157285942200001E-3</v>
+        <v>3.4172380992700002E-3</v>
       </c>
       <c r="L247" s="4">
         <f t="shared" si="29"/>
@@ -23311,7 +23311,7 @@
       </c>
       <c r="Q247" s="4"/>
       <c r="R247">
-        <f>0.6*K248/B247</f>
+        <f>0.6*K247/B247</f>
         <v>9.7536334742853422E-4</v>
       </c>
     </row>
@@ -23351,7 +23351,7 @@
         <v>0.19159974498499999</v>
       </c>
       <c r="K248" s="3">
-        <v>3.4172380992700002E-3</v>
+        <v>3.3298238790499999E-3</v>
       </c>
       <c r="L248" s="4">
         <f t="shared" si="29"/>
@@ -23375,7 +23375,7 @@
       </c>
       <c r="Q248" s="4"/>
       <c r="R248">
-        <f>0.6*K249/B248</f>
+        <f>0.6*K248/B248</f>
         <v>9.5076824915967949E-4</v>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
         <v>0.19428542631199999</v>
       </c>
       <c r="K249" s="3">
-        <v>3.3298238790499999E-3</v>
+        <v>3.2523427118200002E-3</v>
       </c>
       <c r="L249" s="4">
         <f t="shared" si="29"/>
@@ -23439,7 +23439,7 @@
       </c>
       <c r="Q249" s="4"/>
       <c r="R249">
-        <f>0.6*K250/B249</f>
+        <f>0.6*K249/B249</f>
         <v>9.2898314175128387E-4</v>
       </c>
     </row>
@@ -23479,7 +23479,7 @@
         <v>0.19697067529100001</v>
       </c>
       <c r="K250" s="3">
-        <v>3.2523427118200002E-3</v>
+        <v>3.1838254789800001E-3</v>
       </c>
       <c r="L250" s="4">
         <f t="shared" si="29"/>
@@ -23503,7 +23503,7 @@
       </c>
       <c r="Q250" s="4"/>
       <c r="R250">
-        <f>0.6*K251/B250</f>
+        <f>0.6*K250/B250</f>
         <v>9.0973579730861274E-4</v>
       </c>
     </row>
@@ -23543,7 +23543,7 @@
         <v>0.19965550167099999</v>
       </c>
       <c r="K251" s="3">
-        <v>3.1838254789800001E-3</v>
+        <v>3.1234490468200001E-3</v>
       </c>
       <c r="L251" s="4">
         <f t="shared" si="29"/>
@@ -23567,7 +23567,7 @@
       </c>
       <c r="Q251" s="4"/>
       <c r="R251">
-        <f>0.6*K252/B251</f>
+        <f>0.6*K251/B251</f>
         <v>8.9279500991063735E-4</v>
       </c>
     </row>
@@ -23607,7 +23607,7 @@
         <v>0.20233991925799999</v>
       </c>
       <c r="K252" s="3">
-        <v>3.1234490468200001E-3</v>
+        <v>3.0705136011200001E-3</v>
       </c>
       <c r="L252" s="4">
         <f t="shared" si="29"/>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="Q252" s="4"/>
       <c r="R252">
-        <f>0.6*K253/B252</f>
+        <f>0.6*K252/B252</f>
         <v>8.7796425464722622E-4</v>
       </c>
     </row>
@@ -23671,7 +23671,7 @@
         <v>0.20502394553200001</v>
       </c>
       <c r="K253" s="3">
-        <v>3.0705136011200001E-3</v>
+        <v>3.0244243062500001E-3</v>
       </c>
       <c r="L253" s="4">
         <f t="shared" si="29"/>
@@ -23695,7 +23695,7 @@
       </c>
       <c r="Q253" s="4"/>
       <c r="R253">
-        <f>0.6*K254/B253</f>
+        <f>0.6*K253/B253</f>
         <v>8.6507655514234615E-4</v>
       </c>
     </row>
@@ -23735,7 +23735,7 @@
         <v>0.207707601336</v>
       </c>
       <c r="K254" s="3">
-        <v>3.0244243062500001E-3</v>
+        <v>2.9846764217499999E-3</v>
       </c>
       <c r="L254" s="4">
         <f t="shared" si="29"/>
@@ -23759,7 +23759,7 @@
       </c>
       <c r="Q254" s="4"/>
       <c r="R254">
-        <f>0.6*K255/B254</f>
+        <f>0.6*K254/B254</f>
         <v>8.539903181747834E-4</v>
       </c>
     </row>
@@ -23799,7 +23799,7 @@
         <v>0.21039091060699999</v>
       </c>
       <c r="K255" s="3">
-        <v>2.9846764217499999E-3</v>
+        <v>2.95084320681E-3</v>
       </c>
       <c r="L255" s="4">
         <f t="shared" si="29"/>
@@ -23823,7 +23823,7 @@
       </c>
       <c r="Q255" s="4"/>
       <c r="R255">
-        <f>0.6*K256/B255</f>
+        <f>0.6*K255/B255</f>
         <v>8.4458594882854516E-4</v>
       </c>
     </row>
@@ -23863,7 +23863,7 @@
         <v>0.213073900146</v>
       </c>
       <c r="K256" s="3">
-        <v>2.95084320681E-3</v>
+        <v>2.9225660933100001E-3</v>
       </c>
       <c r="L256" s="4">
         <f t="shared" si="29"/>
@@ -23887,7 +23887,7 @@
       </c>
       <c r="Q256" s="4"/>
       <c r="R256">
-        <f>0.6*K257/B256</f>
+        <f>0.6*K256/B256</f>
         <v>8.3676310145798722E-4</v>
       </c>
     </row>
@@ -23927,7 +23927,7 @@
         <v>0.215756599439</v>
       </c>
       <c r="K257" s="3">
-        <v>2.9225660933100001E-3</v>
+        <v>2.8995467240299998E-3</v>
       </c>
       <c r="L257" s="4">
         <f t="shared" si="29"/>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="Q257" s="4"/>
       <c r="R257">
-        <f>0.6*K258/B257</f>
+        <f>0.6*K257/B257</f>
         <v>8.3043845402218386E-4</v>
       </c>
     </row>
@@ -23991,7 +23991,7 @@
         <v>0.21843904049900001</v>
       </c>
       <c r="K258" s="3">
-        <v>2.8995467240299998E-3</v>
+        <v>2.8815405424099999E-3</v>
       </c>
       <c r="L258" s="4">
         <f t="shared" si="29"/>
@@ -24015,7 +24015,7 @@
       </c>
       <c r="Q258" s="4"/>
       <c r="R258">
-        <f>0.6*K259/B258</f>
+        <f>0.6*K258/B258</f>
         <v>8.2554391845076648E-4</v>
       </c>
     </row>
@@ -24055,7 +24055,7 @@
         <v>0.221121257741</v>
       </c>
       <c r="K259" s="3">
-        <v>2.8815405424099999E-3</v>
+        <v>2.8683516911E-3</v>
       </c>
       <c r="L259" s="4">
         <f t="shared" ref="L259:L302" si="38">-(C259*300*0.00981)/B259</f>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="Q259" s="4"/>
       <c r="R259">
-        <f>0.6*K260/B259</f>
+        <f>0.6*K259/B259</f>
         <v>8.2202521935211871E-4</v>
       </c>
     </row>
@@ -24119,7 +24119,7 @@
         <v>0.22380328788699999</v>
       </c>
       <c r="K260" s="3">
-        <v>2.8683516911E-3</v>
+        <v>2.8598290332800002E-3</v>
       </c>
       <c r="L260" s="4">
         <f t="shared" si="38"/>
@@ -24143,7 +24143,7 @@
       </c>
       <c r="Q260" s="4"/>
       <c r="R260">
-        <f>0.6*K261/B260</f>
+        <f>0.6*K260/B260</f>
         <v>8.1984078944561192E-4</v>
       </c>
     </row>
@@ -24183,7 +24183,7 @@
         <v>0.22648516988699999</v>
       </c>
       <c r="K261" s="3">
-        <v>2.8598290332800002E-3</v>
+        <v>2.8558631563E-3</v>
       </c>
       <c r="L261" s="4">
         <f t="shared" si="38"/>
@@ -24207,7 +24207,7 @@
       </c>
       <c r="Q261" s="4"/>
       <c r="R261">
-        <f>0.6*K262/B261</f>
+        <f>0.6*K261/B261</f>
         <v>8.1896094274104179E-4</v>
       </c>
     </row>
@@ -24247,7 +24247,7 @@
         <v>0.22916694487</v>
       </c>
       <c r="K262" s="3">
-        <v>2.8558631563E-3</v>
+        <v>2.8563851168000001E-3</v>
       </c>
       <c r="L262" s="4">
         <f t="shared" si="38"/>
@@ -24271,7 +24271,7 @@
       </c>
       <c r="Q262" s="4"/>
       <c r="R262">
-        <f>0.6*K263/B262</f>
+        <f>0.6*K262/B262</f>
         <v>8.1936754433675632E-4</v>
       </c>
     </row>
@@ -24311,7 +24311,7 @@
         <v>0.23184865611399999</v>
       </c>
       <c r="K263" s="3">
-        <v>2.8563851168000001E-3</v>
+        <v>2.8613616332400001E-3</v>
       </c>
       <c r="L263" s="4">
         <f t="shared" si="38"/>
@@ -24335,7 +24335,7 @@
       </c>
       <c r="Q263" s="4"/>
       <c r="R263">
-        <f>0.6*K264/B263</f>
+        <f>0.6*K263/B263</f>
         <v>8.2105265947571466E-4</v>
       </c>
     </row>
@@ -24375,7 +24375,7 @@
         <v>0.23453034903100001</v>
       </c>
       <c r="K264" s="3">
-        <v>2.8613616332400001E-3</v>
+        <v>2.8707999015800002E-3</v>
       </c>
       <c r="L264" s="4">
         <f t="shared" si="38"/>
@@ -24399,7 +24399,7 @@
       </c>
       <c r="Q264" s="4"/>
       <c r="R264">
-        <f>0.6*K265/B264</f>
+        <f>0.6*K264/B264</f>
         <v>8.2401996136065834E-4</v>
       </c>
     </row>
@@ -24439,7 +24439,7 @@
         <v>0.23721207117699999</v>
       </c>
       <c r="K265" s="3">
-        <v>2.8707999015800002E-3</v>
+        <v>2.8847441994100001E-3</v>
       </c>
       <c r="L265" s="4">
         <f t="shared" si="38"/>
@@ -24463,7 +24463,7 @@
       </c>
       <c r="Q265" s="4"/>
       <c r="R265">
-        <f>0.6*K266/B265</f>
+        <f>0.6*K265/B265</f>
         <v>8.2828378432660244E-4</v>
       </c>
     </row>
@@ -24503,7 +24503,7 @@
         <v>0.239893872285</v>
       </c>
       <c r="K266" s="3">
-        <v>2.8847441994100001E-3</v>
+        <v>2.9032778176999998E-3</v>
       </c>
       <c r="L266" s="4">
         <f t="shared" si="38"/>
@@ -24527,7 +24527,7 @@
       </c>
       <c r="Q266" s="4"/>
       <c r="R266">
-        <f>0.6*K267/B266</f>
+        <f>0.6*K266/B266</f>
         <v>8.3386970531958192E-4</v>
       </c>
     </row>
@@ -24567,7 +24567,7 @@
         <v>0.24257580430600001</v>
       </c>
       <c r="K267" s="3">
-        <v>2.9032778176999998E-3</v>
+        <v>2.9265248945499998E-3</v>
       </c>
       <c r="L267" s="4">
         <f t="shared" si="38"/>
@@ -24591,7 +24591,7 @@
       </c>
       <c r="Q267" s="4"/>
       <c r="R267">
-        <f>0.6*K268/B267</f>
+        <f>0.6*K267/B267</f>
         <v>8.4081509905522297E-4</v>
       </c>
     </row>
@@ -24631,7 +24631,7 @@
         <v>0.24525792148600001</v>
       </c>
       <c r="K268" s="3">
-        <v>2.9265248945499998E-3</v>
+        <v>2.95465315205E-3</v>
       </c>
       <c r="L268" s="4">
         <f t="shared" si="38"/>
@@ -24655,7 +24655,7 @@
       </c>
       <c r="Q268" s="4"/>
       <c r="R268">
-        <f>0.6*K269/B268</f>
+        <f>0.6*K268/B268</f>
         <v>8.4916995485747172E-4</v>
       </c>
     </row>
@@ -24695,7 +24695,7 @@
         <v>0.247940280455</v>
       </c>
       <c r="K269" s="3">
-        <v>2.95465315205E-3</v>
+        <v>2.98787765288E-3</v>
       </c>
       <c r="L269" s="4">
         <f t="shared" si="38"/>
@@ -24719,7 +24719,7 @@
       </c>
       <c r="Q269" s="4"/>
       <c r="R269">
-        <f>0.6*K270/B269</f>
+        <f>0.6*K269/B269</f>
         <v>8.5899798980018248E-4</v>
       </c>
     </row>
@@ -24759,7 +24759,7 @@
         <v>0.250622940342</v>
       </c>
       <c r="K270" s="3">
-        <v>2.98787765288E-3</v>
+        <v>3.0264693297800001E-3</v>
       </c>
       <c r="L270" s="4">
         <f t="shared" si="38"/>
@@ -24783,7 +24783,7 @@
       </c>
       <c r="Q270" s="4"/>
       <c r="R270">
-        <f>0.6*K271/B270</f>
+        <f>0.6*K270/B270</f>
         <v>8.7037913868463854E-4</v>
       </c>
     </row>
@@ -24823,7 +24823,7 @@
         <v>0.25330596292500002</v>
       </c>
       <c r="K271" s="3">
-        <v>3.0264693297800001E-3</v>
+        <v>3.0707473427899999E-3</v>
       </c>
       <c r="L271" s="4">
         <f t="shared" si="38"/>
@@ -24847,7 +24847,7 @@
       </c>
       <c r="Q271" s="4"/>
       <c r="R271">
-        <f>0.6*K272/B271</f>
+        <f>0.6*K271/B271</f>
         <v>8.8340739958404945E-4</v>
       </c>
     </row>
@@ -24887,7 +24887,7 @@
         <v>0.25598941279800003</v>
       </c>
       <c r="K272" s="3">
-        <v>3.0707473427899999E-3</v>
+        <v>3.1211077099999999E-3</v>
       </c>
       <c r="L272" s="4">
         <f t="shared" si="38"/>
@@ -24911,7 +24911,7 @@
       </c>
       <c r="Q272" s="4"/>
       <c r="R272">
-        <f>0.6*K273/B272</f>
+        <f>0.6*K272/B272</f>
         <v>8.9819911613455339E-4</v>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
         <v>0.25867335757999999</v>
       </c>
       <c r="K273" s="3">
-        <v>3.1211077099999999E-3</v>
+        <v>3.1780199636800002E-3</v>
       </c>
       <c r="L273" s="4">
         <f t="shared" si="38"/>
@@ -24975,7 +24975,7 @@
       </c>
       <c r="Q273" s="4"/>
       <c r="R273">
-        <f>0.6*K274/B273</f>
+        <f>0.6*K273/B273</f>
         <v>9.148920782751941E-4</v>
       </c>
     </row>
@@ -25015,7 +25015,7 @@
         <v>0.261357868163</v>
       </c>
       <c r="K274" s="3">
-        <v>3.1780199636800002E-3</v>
+        <v>3.2420432986000002E-3</v>
       </c>
       <c r="L274" s="4">
         <f t="shared" si="38"/>
@@ -25039,7 +25039,7 @@
       </c>
       <c r="Q274" s="4"/>
       <c r="R274">
-        <f>0.6*K275/B274</f>
+        <f>0.6*K274/B274</f>
         <v>9.3365023938461441E-4</v>
       </c>
     </row>
@@ -25079,7 +25079,7 @@
         <v>0.264043019002</v>
       </c>
       <c r="K275" s="3">
-        <v>3.2420432986000002E-3</v>
+        <v>3.31384294045E-3</v>
       </c>
       <c r="L275" s="4">
         <f t="shared" si="38"/>
@@ -25103,7 +25103,7 @@
       </c>
       <c r="Q275" s="4"/>
       <c r="R275">
-        <f>0.6*K276/B275</f>
+        <f>0.6*K275/B275</f>
         <v>9.5466851472543425E-4</v>
       </c>
     </row>
@@ -25143,7 +25143,7 @@
         <v>0.26672888846300002</v>
       </c>
       <c r="K276" s="3">
-        <v>3.31384294045E-3</v>
+        <v>3.3942058658899999E-3</v>
       </c>
       <c r="L276" s="4">
         <f t="shared" si="38"/>
@@ -25167,7 +25167,7 @@
       </c>
       <c r="Q276" s="4"/>
       <c r="R276">
-        <f>0.6*K277/B276</f>
+        <f>0.6*K276/B276</f>
         <v>9.781774134986986E-4</v>
       </c>
     </row>
@@ -25207,7 +25207,7 @@
         <v>0.26941555922900001</v>
       </c>
       <c r="K277" s="3">
-        <v>3.3942058658899999E-3</v>
+        <v>3.4840735373600001E-3</v>
       </c>
       <c r="L277" s="4">
         <f t="shared" si="38"/>
@@ -25231,7 +25231,7 @@
       </c>
       <c r="Q277" s="4"/>
       <c r="R277">
-        <f>0.6*K278/B277</f>
+        <f>0.6*K277/B277</f>
         <v>1.0044525990424138E-3</v>
       </c>
     </row>
@@ -25271,7 +25271,7 @@
         <v>0.27210311878499999</v>
       </c>
       <c r="K278" s="3">
-        <v>3.4840735373600001E-3</v>
+        <v>3.58457365187E-3</v>
       </c>
       <c r="L278" s="4">
         <f t="shared" si="38"/>
@@ -25295,7 +25295,7 @@
       </c>
       <c r="Q278" s="4"/>
       <c r="R278">
-        <f>0.6*K279/B278</f>
+        <f>0.6*K278/B278</f>
         <v>1.0338242042914067E-3</v>
       </c>
     </row>
@@ -25335,7 +25335,7 @@
         <v>0.27479165999799998</v>
       </c>
       <c r="K279" s="3">
-        <v>3.58457365187E-3</v>
+        <v>3.6970505531899998E-3</v>
       </c>
       <c r="L279" s="4">
         <f t="shared" si="38"/>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="Q279" s="4"/>
       <c r="R279">
-        <f>0.6*K280/B279</f>
+        <f>0.6*K279/B279</f>
         <v>1.0666858064097271E-3</v>
       </c>
     </row>
@@ -25399,7 +25399,7 @@
         <v>0.277481281804</v>
       </c>
       <c r="K280" s="3">
-        <v>3.6970505531899998E-3</v>
+        <v>3.8231564882100001E-3</v>
       </c>
       <c r="L280" s="4">
         <f t="shared" si="38"/>
@@ -25423,7 +25423,7 @@
       </c>
       <c r="Q280" s="4"/>
       <c r="R280">
-        <f>0.6*K281/B280</f>
+        <f>0.6*K280/B280</f>
         <v>1.1035210147296273E-3</v>
       </c>
     </row>
@@ -25463,7 +25463,7 @@
         <v>0.28017209004299998</v>
       </c>
       <c r="K281" s="3">
-        <v>3.8231564882100001E-3</v>
+        <v>3.9648721245699996E-3</v>
       </c>
       <c r="L281" s="4">
         <f t="shared" si="38"/>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="Q281" s="4"/>
       <c r="R281">
-        <f>0.6*K282/B281</f>
+        <f>0.6*K281/B281</f>
         <v>1.1449097445980964E-3</v>
       </c>
     </row>
@@ -25527,7 +25527,7 @@
         <v>0.28286419846999999</v>
       </c>
       <c r="K282" s="3">
-        <v>3.9648721245699996E-3</v>
+        <v>4.1246387152700003E-3</v>
       </c>
       <c r="L282" s="4">
         <f t="shared" si="38"/>
@@ -25551,7 +25551,7 @@
       </c>
       <c r="Q282" s="4"/>
       <c r="R282">
-        <f>0.6*K283/B282</f>
+        <f>0.6*K282/B282</f>
         <v>1.191566814311425E-3</v>
       </c>
     </row>
@@ -25591,7 +25591,7 @@
         <v>0.28555772998599999</v>
       </c>
       <c r="K283" s="3">
-        <v>4.1246387152700003E-3</v>
+        <v>4.3054961898199998E-3</v>
       </c>
       <c r="L283" s="4">
         <f t="shared" si="38"/>
@@ -25615,7 +25615,7 @@
       </c>
       <c r="Q283" s="4"/>
       <c r="R283">
-        <f>0.6*K284/B283</f>
+        <f>0.6*K283/B283</f>
         <v>1.2443824433307714E-3</v>
       </c>
     </row>
@@ -25655,7 +25655,7 @@
         <v>0.28825281815600001</v>
       </c>
       <c r="K284" s="3">
-        <v>4.3054961898199998E-3</v>
+        <v>4.5112053986500001E-3</v>
       </c>
       <c r="L284" s="4">
         <f t="shared" si="38"/>
@@ -25679,7 +25679,7 @@
       </c>
       <c r="Q284" s="4"/>
       <c r="R284">
-        <f>0.6*K285/B284</f>
+        <f>0.6*K284/B284</f>
         <v>1.3044584005960545E-3</v>
       </c>
     </row>
@@ -25719,7 +25719,7 @@
         <v>0.29094960910399997</v>
       </c>
       <c r="K285" s="3">
-        <v>4.5112053986500001E-3</v>
+        <v>4.7465702704899996E-3</v>
       </c>
       <c r="L285" s="4">
         <f t="shared" si="38"/>
@@ -25743,7 +25743,7 @@
       </c>
       <c r="Q285" s="4"/>
       <c r="R285">
-        <f>0.6*K286/B285</f>
+        <f>0.6*K285/B285</f>
         <v>1.373202256764651E-3</v>
       </c>
     </row>
@@ -25783,7 +25783,7 @@
         <v>0.29364826388900001</v>
       </c>
       <c r="K286" s="3">
-        <v>4.7465702704899996E-3</v>
+        <v>5.0178033607700002E-3</v>
       </c>
       <c r="L286" s="4">
         <f t="shared" si="38"/>
@@ -25807,7 +25807,7 @@
       </c>
       <c r="Q286" s="4"/>
       <c r="R286">
-        <f>0.6*K287/B286</f>
+        <f>0.6*K286/B286</f>
         <v>1.4524347451358559E-3</v>
       </c>
     </row>
@@ -25847,7 +25847,7 @@
         <v>0.29634896157099999</v>
       </c>
       <c r="K287" s="3">
-        <v>5.0178033607700002E-3</v>
+        <v>5.3329832597100004E-3</v>
       </c>
       <c r="L287" s="4">
         <f t="shared" si="38"/>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="Q287" s="4"/>
       <c r="R287">
-        <f>0.6*K288/B287</f>
+        <f>0.6*K287/B287</f>
         <v>1.5445244645842804E-3</v>
       </c>
     </row>
@@ -25911,7 +25911,7 @@
         <v>0.29905190318199998</v>
       </c>
       <c r="K288" s="3">
-        <v>5.3329832597100004E-3</v>
+        <v>5.7029131569100002E-3</v>
       </c>
       <c r="L288" s="4">
         <f t="shared" si="38"/>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="Q288" s="4"/>
       <c r="R288">
-        <f>0.6*K289/B288</f>
+        <f>0.6*K288/B288</f>
         <v>1.6526398890524237E-3</v>
       </c>
     </row>
@@ -25975,7 +25975,7 @@
         <v>0.30175731697800001</v>
       </c>
       <c r="K289" s="3">
-        <v>5.7029131569100002E-3</v>
+        <v>6.1422724033900001E-3</v>
       </c>
       <c r="L289" s="4">
         <f t="shared" si="38"/>
@@ -25999,7 +25999,7 @@
       </c>
       <c r="Q289" s="4"/>
       <c r="R289">
-        <f>0.6*K290/B289</f>
+        <f>0.6*K289/B289</f>
         <v>1.7810882379635919E-3</v>
       </c>
     </row>
@@ -26039,7 +26039,7 @@
         <v>0.30446546554100001</v>
       </c>
       <c r="K290" s="3">
-        <v>6.1422724033900001E-3</v>
+        <v>6.6716645715999999E-3</v>
       </c>
       <c r="L290" s="4">
         <f t="shared" si="38"/>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="Q290" s="4"/>
       <c r="R290">
-        <f>0.6*K291/B290</f>
+        <f>0.6*K290/B290</f>
         <v>1.9359174231744396E-3</v>
       </c>
     </row>
@@ -26103,7 +26103,7 @@
         <v>0.307176655608</v>
       </c>
       <c r="K291" s="3">
-        <v>6.6716645715999999E-3</v>
+        <v>7.3207993573399998E-3</v>
       </c>
       <c r="L291" s="4">
         <f t="shared" si="38"/>
@@ -26127,7 +26127,7 @@
       </c>
       <c r="Q291" s="4"/>
       <c r="R291">
-        <f>0.6*K292/B291</f>
+        <f>0.6*K291/B291</f>
         <v>2.1258526332845725E-3</v>
       </c>
     </row>
@@ -26167,7 +26167,7 @@
         <v>0.30989125211000002</v>
       </c>
       <c r="K292" s="3">
-        <v>7.3207993573399998E-3</v>
+        <v>8.1342029677600007E-3</v>
       </c>
       <c r="L292" s="4">
         <f t="shared" si="38"/>
@@ -26191,7 +26191,7 @@
       </c>
       <c r="Q292" s="4"/>
       <c r="R292">
-        <f>0.6*K293/B292</f>
+        <f>0.6*K292/B292</f>
         <v>2.3639772315550106E-3</v>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
         <v>0.31260969891200002</v>
       </c>
       <c r="K293" s="3">
-        <v>8.1342029677600007E-3</v>
+        <v>9.1817951657600008E-3</v>
       </c>
       <c r="L293" s="4">
         <f t="shared" si="38"/>
@@ -26255,7 +26255,7 @@
       </c>
       <c r="Q293" s="4"/>
       <c r="R293">
-        <f>0.6*K294/B293</f>
+        <f>0.6*K293/B293</f>
         <v>2.6708478447223828E-3</v>
       </c>
     </row>
@@ -26295,7 +26295,7 @@
         <v>0.31533255082400002</v>
       </c>
       <c r="K294" s="3">
-        <v>9.1817951657600008E-3</v>
+        <v>1.0579868235400001E-2</v>
       </c>
       <c r="L294" s="4">
         <f t="shared" si="38"/>
@@ -26319,7 +26319,7 @@
       </c>
       <c r="Q294" s="4"/>
       <c r="R294">
-        <f>0.6*K295/B294</f>
+        <f>0.6*K294/B294</f>
         <v>3.0806768526412012E-3</v>
       </c>
     </row>
@@ -26359,7 +26359,7 @@
         <v>0.31806052575100002</v>
       </c>
       <c r="K295" s="3">
-        <v>1.0579868235400001E-2</v>
+        <v>1.25376174011E-2</v>
       </c>
       <c r="L295" s="4">
         <f t="shared" si="38"/>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="Q295" s="4"/>
       <c r="R295">
-        <f>0.6*K296/B295</f>
+        <f>0.6*K295/B295</f>
         <v>3.6550511607372303E-3</v>
       </c>
     </row>
@@ -26423,7 +26423,7 @@
         <v>0.320794595977</v>
       </c>
       <c r="K296" s="3">
-        <v>1.25376174011E-2</v>
+        <v>1.5472672369799999E-2</v>
       </c>
       <c r="L296" s="4">
         <f t="shared" si="38"/>
@@ -26447,7 +26447,7 @@
       </c>
       <c r="Q296" s="4"/>
       <c r="R296">
-        <f>0.6*K297/B296</f>
+        <f>0.6*K296/B296</f>
         <v>4.5170195380373887E-3</v>
       </c>
     </row>
@@ -26487,7 +26487,7 @@
         <v>0.32353616408500002</v>
       </c>
       <c r="K297" s="3">
-        <v>1.5472672369799999E-2</v>
+        <v>2.0357569960400002E-2</v>
       </c>
       <c r="L297" s="4">
         <f t="shared" si="38"/>
@@ -26511,7 +26511,7 @@
       </c>
       <c r="Q297" s="4"/>
       <c r="R297">
-        <f>0.6*K298/B297</f>
+        <f>0.6*K297/B297</f>
         <v>5.9533898295248732E-3</v>
       </c>
     </row>
@@ -26551,7 +26551,7 @@
         <v>0.32628745296799999</v>
       </c>
       <c r="K298" s="3">
-        <v>2.0357569960400002E-2</v>
+        <v>3.0102371018499999E-2</v>
       </c>
       <c r="L298" s="4">
         <f t="shared" si="38"/>
@@ -26575,7 +26575,7 @@
       </c>
       <c r="Q298" s="4"/>
       <c r="R298">
-        <f>0.6*K299/B298</f>
+        <f>0.6*K298/B298</f>
         <v>8.8232819268123375E-3</v>
       </c>
     </row>
@@ -26615,7 +26615,7 @@
         <v>0.329052592004</v>
       </c>
       <c r="K299" s="3">
-        <v>3.0102371018499999E-2</v>
+        <v>5.9182345251099999E-2</v>
       </c>
       <c r="L299" s="4">
         <f t="shared" si="38"/>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="Q299" s="4"/>
       <c r="R299">
-        <f>0.6*K300/B299</f>
+        <f>0.6*K299/B299</f>
         <v>1.7405690347519841E-2</v>
       </c>
     </row>
@@ -26679,7 +26679,7 @@
         <v>0.331842397989</v>
       </c>
       <c r="K300" s="3">
-        <v>5.9182345251099999E-2</v>
+        <v>0.68356558496700004</v>
       </c>
       <c r="L300" s="4">
         <f t="shared" si="38"/>
@@ -26703,7 +26703,7 @@
       </c>
       <c r="Q300" s="4"/>
       <c r="R300">
-        <f>0.6*K301/B300</f>
+        <f>0.6*K300/B300</f>
         <v>0.20238727247070648</v>
       </c>
     </row>
@@ -26743,7 +26743,7 @@
         <v>0.33484379781599999</v>
       </c>
       <c r="K301" s="3">
-        <v>0.68356558496700004</v>
+        <v>0.95884583866100004</v>
       </c>
       <c r="L301" s="4">
         <f t="shared" si="38"/>
@@ -26767,7 +26767,7 @@
       </c>
       <c r="Q301" s="4"/>
       <c r="R301">
-        <f>0.6*K302/B301</f>
+        <f>0.6*K301/B301</f>
         <v>0.30773749269400075</v>
       </c>
     </row>
@@ -26807,7 +26807,7 @@
         <v>0.33834743463400002</v>
       </c>
       <c r="K302" s="3">
-        <v>0.95884583866100004</v>
+        <v>0</v>
       </c>
       <c r="L302" s="4">
         <f t="shared" si="38"/>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="Q302" s="4"/>
       <c r="R302">
-        <f>0.6*K303/B302</f>
+        <f>0.6*K302/B302</f>
         <v>0</v>
       </c>
     </row>
@@ -26847,9 +26847,6 @@
       </c>
       <c r="I303" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K303" s="3">
-        <v>0</v>
       </c>
       <c r="L303" s="4" t="s">
         <v>10</v>
